--- a/template/statement_template.xlsx
+++ b/template/statement_template.xlsx
@@ -4,17 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="中润对帐单" sheetId="3" r:id="rId1"/>
-    <sheet name="订单明细" sheetId="9" r:id="rId2"/>
-    <sheet name="每日用量明细" sheetId="7" r:id="rId3"/>
-    <sheet name="每月用量对比" sheetId="8" r:id="rId4"/>
+    <sheet name="中润对账单" sheetId="3" r:id="rId1"/>
+    <sheet name="每日用量明细" sheetId="7" r:id="rId2"/>
+    <sheet name="每月用量对比" sheetId="8" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,9 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
-    <t>客户名称：华能车辆配件有限公司</t>
+    <t>客户名称：浙江巨跃齿轮有限公司</t>
   </si>
   <si>
     <r>
@@ -49,21 +45,30 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>（</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>（2025.7.1-2025.7.31）</t>
+      <t>2025.7.1-2025.7.31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
   </si>
   <si>
@@ -73,40 +78,43 @@
     <t>油品名称/型号</t>
   </si>
   <si>
-    <t>油品密度
-（ρ）</t>
+    <t>设备编码</t>
   </si>
   <si>
     <t>本月总升数计量（L）</t>
   </si>
   <si>
-    <t>单价/升
-（含13%税）</t>
-  </si>
-  <si>
-    <t>总金额
-（元）</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>AP.8797全合成研磨切削液</t>
+    <t>全合成研磨切削液S8L-1</t>
   </si>
   <si>
-    <t>1.03±0.05</t>
+    <t>MO24111301600017</t>
   </si>
   <si>
     <t>加注明细</t>
   </si>
   <si>
-    <t>以下空白</t>
+    <t>全合成研磨切削液825-1</t>
   </si>
   <si>
-    <t>合计（大写）：</t>
+    <t>MO25050803700013</t>
   </si>
   <si>
-    <t>￥：</t>
+    <t>全合成研磨切削液S8L-2</t>
+  </si>
+  <si>
+    <t>MO24082401300006</t>
+  </si>
+  <si>
+    <t>全合成研磨切削液825-2</t>
+  </si>
+  <si>
+    <t>ZRPYA1AA0001</t>
+  </si>
+  <si>
+    <t>以下空白</t>
   </si>
   <si>
     <t>月度使用量趋势分析</t>
@@ -120,36 +128,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>说明：
-    1、如贵司对往来帐单确认无误，总销货帐款应为：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  4279.45 </t>
+      <t xml:space="preserve">
+ </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="黑体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>元。
-    2、请核对此份对帐单，核对无误后请于三个工作日回传到我公司，如超过期限未回传则视为默认我司数据正确无误，谢谢配合！
-    感谢贵司一直以来的支持和惠顾！
-    客户签字/盖章确认：                              日期：2025.8.2                         制单人：陆静</t>
+      <t>日期：2025年8月6日                                               制单人：陆静</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">车间化学品数字化一站式供应商                      ADD: 浙江省台州市天台县始丰街道永盛路30号孵化中心二期6号楼四层102室   E-MAIL: zhongrunyl@163.com  WEB: www.zr228.com  </t>
+    <t xml:space="preserve">车间化学品数字化一站式供应商                      ADD: 浙江省台州市天台县始丰街道永盛路30号孵化中心二期6号楼               E-MAIL: zhongrunyl@163.com         WEB: www.zr228.com  </t>
   </si>
   <si>
     <t>初始日期</t>
@@ -283,24 +276,6 @@
     <t>月  份</t>
   </si>
   <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
     <t>7月</t>
   </si>
   <si>
@@ -323,23 +298,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="14">
+  <numFmts count="13">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="179" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
-    <numFmt numFmtId="183" formatCode="General&quot;月&quot;"/>
-    <numFmt numFmtId="184" formatCode="0.000_ "/>
-    <numFmt numFmtId="185" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="General&quot;月&quot;"/>
+    <numFmt numFmtId="183" formatCode="0_ "/>
+    <numFmt numFmtId="184" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,25 +366,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="9" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -421,6 +382,12 @@
     <font>
       <sz val="9"/>
       <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -475,20 +442,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="6"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -653,26 +606,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="40">
@@ -911,7 +844,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -920,10 +853,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color theme="0" tint="-0.15"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.15"/>
+      </right>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.15"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.14996795556505"/>
@@ -936,7 +873,7 @@
         <color theme="0" tint="-0.14996795556505"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.15"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.14996795556505"/>
@@ -957,10 +894,36 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0" tint="-0.15"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="0" tint="-0.15"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505"/>
+      </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505"/>
       </top>
@@ -1040,37 +1003,7 @@
       <left style="thin">
         <color theme="0" tint="-0.15"/>
       </left>
-      <right style="thin">
-        <color theme="0" tint="-0.15"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.15"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.15"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.15"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.15"/>
-      </right>
+      <right/>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505"/>
       </top>
@@ -1168,28 +1101,17 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF329E2E"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF329E2E"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF329E2E"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1198,132 +1120,23 @@
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF329E2E"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF329E2E"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF329E2E"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF329E2E"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF329E2E"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF329E2E"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color rgb="FF329E2E"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF329E2E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF329E2E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF329E2E"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF329E2E"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF329E2E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF329E2E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF329E2E"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF329E2E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF329E2E"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF329E2E"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1337,90 +1150,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF329E2E"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF329E2E"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF329E2E"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF329E2E"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF329E2E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF329E2E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF329E2E"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF329E2E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF329E2E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF329E2E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF329E2E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF329E2E"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF329E2E"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF329E2E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF329E2E"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1445,59 +1180,6 @@
       <bottom style="thin">
         <color rgb="FF329E2E"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF329E2E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF329E2E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF329E2E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF329E2E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF329E2E"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF329E2E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF329E2E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF329E2E"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1536,6 +1218,19 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF329E2E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1657,137 +1352,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1815,58 +1510,160 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1875,187 +1672,52 @@
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="12" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="12" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="12" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="12" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="13" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2064,233 +1726,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="19" fillId="8" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="19" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="40" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="8" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="19" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="19" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2401,10 +1985,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr altLang="en-US" sz="1000"/>
+              <a:rPr altLang="en-US" sz="1000">
+                <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              </a:rPr>
               <a:t>每日使用量</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="en-US" sz="1000"/>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1000">
+              <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2413,7 +2003,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.900102180703901"/>
-          <c:y val="0.0142611261372019"/>
+          <c:y val="0.00832639467110741"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2684,7 +2274,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AP.8797全合成研磨切削液</c:v>
+                  <c:v>全合成研磨切削液S8L-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2809,101 +2399,431 @@
             <c:numRef>
               <c:f>每日用量明细!$C$6:$C$36</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日用量明细!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60.12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>254.77</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>63.27</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.08</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
+                  <c:v>全合成研磨切削液825-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>每日用量明细!$B$6:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" c:formatCode="@">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="@">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="@">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="@">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="@">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="@">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="@">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="@">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="@">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="@">
+                  <c:v>7.10</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="@">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="@">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="@">
+                  <c:v>7.13</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="@">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="@">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="@">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="@">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="@">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="@">
+                  <c:v>7.19</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="@">
+                  <c:v>7.20</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="@">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="@">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="@">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="@">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="@">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="@">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="@">
+                  <c:v>7.27</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="@">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="@">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="@">
+                  <c:v>7.30</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="@">
+                  <c:v>7.31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日用量明细!$D$6:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日用量明细!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>全合成研磨切削液S8L-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>每日用量明细!$B$6:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" c:formatCode="@">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="@">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="@">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="@">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="@">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="@">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="@">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="@">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="@">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="@">
+                  <c:v>7.10</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="@">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="@">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="@">
+                  <c:v>7.13</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="@">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="@">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="@">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="@">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="@">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="@">
+                  <c:v>7.19</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="@">
+                  <c:v>7.20</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="@">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="@">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="@">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="@">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="@">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="@">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="@">
+                  <c:v>7.27</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="@">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="@">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="@">
+                  <c:v>7.30</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="@">
+                  <c:v>7.31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日用量明细!$E$6:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每日用量明细!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>全合成研磨切削液825-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>每日用量明细!$B$6:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" c:formatCode="@">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="@">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="@">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="@">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="@">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="@">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="@">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="@">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="@">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="@">
+                  <c:v>7.10</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="@">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="@">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="@">
+                  <c:v>7.13</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="@">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="@">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="@">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="@">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="@">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="@">
+                  <c:v>7.19</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="@">
+                  <c:v>7.20</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="@">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="@">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="@">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="@">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="@">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="@">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="@">
+                  <c:v>7.27</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="@">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="@">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="@">
+                  <c:v>7.30</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="@">
+                  <c:v>7.31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每日用量明细!$F$6:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2921,666 +2841,6 @@
         <c:smooth val="0"/>
         <c:axId val="932489740"/>
         <c:axId val="176390944"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>每日用量明细!$D$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v/>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:dLbls>
-                  <c:delete val="1"/>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>每日用量明细!$B$6:$B$36</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="31"/>
-                      <c:pt idx="0" c:formatCode="@">
-                        <c:v>7.1</c:v>
-                      </c:pt>
-                      <c:pt idx="1" c:formatCode="@">
-                        <c:v>7.2</c:v>
-                      </c:pt>
-                      <c:pt idx="2" c:formatCode="@">
-                        <c:v>7.3</c:v>
-                      </c:pt>
-                      <c:pt idx="3" c:formatCode="@">
-                        <c:v>7.4</c:v>
-                      </c:pt>
-                      <c:pt idx="4" c:formatCode="@">
-                        <c:v>7.5</c:v>
-                      </c:pt>
-                      <c:pt idx="5" c:formatCode="@">
-                        <c:v>7.6</c:v>
-                      </c:pt>
-                      <c:pt idx="6" c:formatCode="@">
-                        <c:v>7.7</c:v>
-                      </c:pt>
-                      <c:pt idx="7" c:formatCode="@">
-                        <c:v>7.8</c:v>
-                      </c:pt>
-                      <c:pt idx="8" c:formatCode="@">
-                        <c:v>7.9</c:v>
-                      </c:pt>
-                      <c:pt idx="9" c:formatCode="@">
-                        <c:v>7.10</c:v>
-                      </c:pt>
-                      <c:pt idx="10" c:formatCode="@">
-                        <c:v>7.11</c:v>
-                      </c:pt>
-                      <c:pt idx="11" c:formatCode="@">
-                        <c:v>7.12</c:v>
-                      </c:pt>
-                      <c:pt idx="12" c:formatCode="@">
-                        <c:v>7.13</c:v>
-                      </c:pt>
-                      <c:pt idx="13" c:formatCode="@">
-                        <c:v>7.14</c:v>
-                      </c:pt>
-                      <c:pt idx="14" c:formatCode="@">
-                        <c:v>7.15</c:v>
-                      </c:pt>
-                      <c:pt idx="15" c:formatCode="@">
-                        <c:v>7.16</c:v>
-                      </c:pt>
-                      <c:pt idx="16" c:formatCode="@">
-                        <c:v>7.17</c:v>
-                      </c:pt>
-                      <c:pt idx="17" c:formatCode="@">
-                        <c:v>7.18</c:v>
-                      </c:pt>
-                      <c:pt idx="18" c:formatCode="@">
-                        <c:v>7.19</c:v>
-                      </c:pt>
-                      <c:pt idx="19" c:formatCode="@">
-                        <c:v>7.20</c:v>
-                      </c:pt>
-                      <c:pt idx="20" c:formatCode="@">
-                        <c:v>7.21</c:v>
-                      </c:pt>
-                      <c:pt idx="21" c:formatCode="@">
-                        <c:v>7.22</c:v>
-                      </c:pt>
-                      <c:pt idx="22" c:formatCode="@">
-                        <c:v>7.23</c:v>
-                      </c:pt>
-                      <c:pt idx="23" c:formatCode="@">
-                        <c:v>7.24</c:v>
-                      </c:pt>
-                      <c:pt idx="24" c:formatCode="@">
-                        <c:v>7.25</c:v>
-                      </c:pt>
-                      <c:pt idx="25" c:formatCode="@">
-                        <c:v>7.26</c:v>
-                      </c:pt>
-                      <c:pt idx="26" c:formatCode="@">
-                        <c:v>7.27</c:v>
-                      </c:pt>
-                      <c:pt idx="27" c:formatCode="@">
-                        <c:v>7.28</c:v>
-                      </c:pt>
-                      <c:pt idx="28" c:formatCode="@">
-                        <c:v>7.29</c:v>
-                      </c:pt>
-                      <c:pt idx="29" c:formatCode="@">
-                        <c:v>7.30</c:v>
-                      </c:pt>
-                      <c:pt idx="30" c:formatCode="@">
-                        <c:v>7.31</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>每日用量明细!$D$6:$D$36</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00_ </c:formatCode>
-                      <c:ptCount val="31"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>每日用量明细!$E$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v/>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:dLbls>
-                  <c:delete val="1"/>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>每日用量明细!$B$6:$B$36</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="31"/>
-                      <c:pt idx="0" c:formatCode="@">
-                        <c:v>7.1</c:v>
-                      </c:pt>
-                      <c:pt idx="1" c:formatCode="@">
-                        <c:v>7.2</c:v>
-                      </c:pt>
-                      <c:pt idx="2" c:formatCode="@">
-                        <c:v>7.3</c:v>
-                      </c:pt>
-                      <c:pt idx="3" c:formatCode="@">
-                        <c:v>7.4</c:v>
-                      </c:pt>
-                      <c:pt idx="4" c:formatCode="@">
-                        <c:v>7.5</c:v>
-                      </c:pt>
-                      <c:pt idx="5" c:formatCode="@">
-                        <c:v>7.6</c:v>
-                      </c:pt>
-                      <c:pt idx="6" c:formatCode="@">
-                        <c:v>7.7</c:v>
-                      </c:pt>
-                      <c:pt idx="7" c:formatCode="@">
-                        <c:v>7.8</c:v>
-                      </c:pt>
-                      <c:pt idx="8" c:formatCode="@">
-                        <c:v>7.9</c:v>
-                      </c:pt>
-                      <c:pt idx="9" c:formatCode="@">
-                        <c:v>7.10</c:v>
-                      </c:pt>
-                      <c:pt idx="10" c:formatCode="@">
-                        <c:v>7.11</c:v>
-                      </c:pt>
-                      <c:pt idx="11" c:formatCode="@">
-                        <c:v>7.12</c:v>
-                      </c:pt>
-                      <c:pt idx="12" c:formatCode="@">
-                        <c:v>7.13</c:v>
-                      </c:pt>
-                      <c:pt idx="13" c:formatCode="@">
-                        <c:v>7.14</c:v>
-                      </c:pt>
-                      <c:pt idx="14" c:formatCode="@">
-                        <c:v>7.15</c:v>
-                      </c:pt>
-                      <c:pt idx="15" c:formatCode="@">
-                        <c:v>7.16</c:v>
-                      </c:pt>
-                      <c:pt idx="16" c:formatCode="@">
-                        <c:v>7.17</c:v>
-                      </c:pt>
-                      <c:pt idx="17" c:formatCode="@">
-                        <c:v>7.18</c:v>
-                      </c:pt>
-                      <c:pt idx="18" c:formatCode="@">
-                        <c:v>7.19</c:v>
-                      </c:pt>
-                      <c:pt idx="19" c:formatCode="@">
-                        <c:v>7.20</c:v>
-                      </c:pt>
-                      <c:pt idx="20" c:formatCode="@">
-                        <c:v>7.21</c:v>
-                      </c:pt>
-                      <c:pt idx="21" c:formatCode="@">
-                        <c:v>7.22</c:v>
-                      </c:pt>
-                      <c:pt idx="22" c:formatCode="@">
-                        <c:v>7.23</c:v>
-                      </c:pt>
-                      <c:pt idx="23" c:formatCode="@">
-                        <c:v>7.24</c:v>
-                      </c:pt>
-                      <c:pt idx="24" c:formatCode="@">
-                        <c:v>7.25</c:v>
-                      </c:pt>
-                      <c:pt idx="25" c:formatCode="@">
-                        <c:v>7.26</c:v>
-                      </c:pt>
-                      <c:pt idx="26" c:formatCode="@">
-                        <c:v>7.27</c:v>
-                      </c:pt>
-                      <c:pt idx="27" c:formatCode="@">
-                        <c:v>7.28</c:v>
-                      </c:pt>
-                      <c:pt idx="28" c:formatCode="@">
-                        <c:v>7.29</c:v>
-                      </c:pt>
-                      <c:pt idx="29" c:formatCode="@">
-                        <c:v>7.30</c:v>
-                      </c:pt>
-                      <c:pt idx="30" c:formatCode="@">
-                        <c:v>7.31</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>每日用量明细!$E$6:$E$36</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00_ </c:formatCode>
-                      <c:ptCount val="31"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>每日用量明细!$F$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v/>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:dLbls>
-                  <c:delete val="1"/>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>每日用量明细!$B$6:$B$36</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="31"/>
-                      <c:pt idx="0" c:formatCode="@">
-                        <c:v>7.1</c:v>
-                      </c:pt>
-                      <c:pt idx="1" c:formatCode="@">
-                        <c:v>7.2</c:v>
-                      </c:pt>
-                      <c:pt idx="2" c:formatCode="@">
-                        <c:v>7.3</c:v>
-                      </c:pt>
-                      <c:pt idx="3" c:formatCode="@">
-                        <c:v>7.4</c:v>
-                      </c:pt>
-                      <c:pt idx="4" c:formatCode="@">
-                        <c:v>7.5</c:v>
-                      </c:pt>
-                      <c:pt idx="5" c:formatCode="@">
-                        <c:v>7.6</c:v>
-                      </c:pt>
-                      <c:pt idx="6" c:formatCode="@">
-                        <c:v>7.7</c:v>
-                      </c:pt>
-                      <c:pt idx="7" c:formatCode="@">
-                        <c:v>7.8</c:v>
-                      </c:pt>
-                      <c:pt idx="8" c:formatCode="@">
-                        <c:v>7.9</c:v>
-                      </c:pt>
-                      <c:pt idx="9" c:formatCode="@">
-                        <c:v>7.10</c:v>
-                      </c:pt>
-                      <c:pt idx="10" c:formatCode="@">
-                        <c:v>7.11</c:v>
-                      </c:pt>
-                      <c:pt idx="11" c:formatCode="@">
-                        <c:v>7.12</c:v>
-                      </c:pt>
-                      <c:pt idx="12" c:formatCode="@">
-                        <c:v>7.13</c:v>
-                      </c:pt>
-                      <c:pt idx="13" c:formatCode="@">
-                        <c:v>7.14</c:v>
-                      </c:pt>
-                      <c:pt idx="14" c:formatCode="@">
-                        <c:v>7.15</c:v>
-                      </c:pt>
-                      <c:pt idx="15" c:formatCode="@">
-                        <c:v>7.16</c:v>
-                      </c:pt>
-                      <c:pt idx="16" c:formatCode="@">
-                        <c:v>7.17</c:v>
-                      </c:pt>
-                      <c:pt idx="17" c:formatCode="@">
-                        <c:v>7.18</c:v>
-                      </c:pt>
-                      <c:pt idx="18" c:formatCode="@">
-                        <c:v>7.19</c:v>
-                      </c:pt>
-                      <c:pt idx="19" c:formatCode="@">
-                        <c:v>7.20</c:v>
-                      </c:pt>
-                      <c:pt idx="20" c:formatCode="@">
-                        <c:v>7.21</c:v>
-                      </c:pt>
-                      <c:pt idx="21" c:formatCode="@">
-                        <c:v>7.22</c:v>
-                      </c:pt>
-                      <c:pt idx="22" c:formatCode="@">
-                        <c:v>7.23</c:v>
-                      </c:pt>
-                      <c:pt idx="23" c:formatCode="@">
-                        <c:v>7.24</c:v>
-                      </c:pt>
-                      <c:pt idx="24" c:formatCode="@">
-                        <c:v>7.25</c:v>
-                      </c:pt>
-                      <c:pt idx="25" c:formatCode="@">
-                        <c:v>7.26</c:v>
-                      </c:pt>
-                      <c:pt idx="26" c:formatCode="@">
-                        <c:v>7.27</c:v>
-                      </c:pt>
-                      <c:pt idx="27" c:formatCode="@">
-                        <c:v>7.28</c:v>
-                      </c:pt>
-                      <c:pt idx="28" c:formatCode="@">
-                        <c:v>7.29</c:v>
-                      </c:pt>
-                      <c:pt idx="29" c:formatCode="@">
-                        <c:v>7.30</c:v>
-                      </c:pt>
-                      <c:pt idx="30" c:formatCode="@">
-                        <c:v>7.31</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>每日用量明细!$F$6:$F$36</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00_ </c:formatCode>
-                      <c:ptCount val="31"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>每日用量明细!$G$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v/>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:dLbls>
-                  <c:delete val="1"/>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>每日用量明细!$B$6:$B$36</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="31"/>
-                      <c:pt idx="0" c:formatCode="@">
-                        <c:v>7.1</c:v>
-                      </c:pt>
-                      <c:pt idx="1" c:formatCode="@">
-                        <c:v>7.2</c:v>
-                      </c:pt>
-                      <c:pt idx="2" c:formatCode="@">
-                        <c:v>7.3</c:v>
-                      </c:pt>
-                      <c:pt idx="3" c:formatCode="@">
-                        <c:v>7.4</c:v>
-                      </c:pt>
-                      <c:pt idx="4" c:formatCode="@">
-                        <c:v>7.5</c:v>
-                      </c:pt>
-                      <c:pt idx="5" c:formatCode="@">
-                        <c:v>7.6</c:v>
-                      </c:pt>
-                      <c:pt idx="6" c:formatCode="@">
-                        <c:v>7.7</c:v>
-                      </c:pt>
-                      <c:pt idx="7" c:formatCode="@">
-                        <c:v>7.8</c:v>
-                      </c:pt>
-                      <c:pt idx="8" c:formatCode="@">
-                        <c:v>7.9</c:v>
-                      </c:pt>
-                      <c:pt idx="9" c:formatCode="@">
-                        <c:v>7.10</c:v>
-                      </c:pt>
-                      <c:pt idx="10" c:formatCode="@">
-                        <c:v>7.11</c:v>
-                      </c:pt>
-                      <c:pt idx="11" c:formatCode="@">
-                        <c:v>7.12</c:v>
-                      </c:pt>
-                      <c:pt idx="12" c:formatCode="@">
-                        <c:v>7.13</c:v>
-                      </c:pt>
-                      <c:pt idx="13" c:formatCode="@">
-                        <c:v>7.14</c:v>
-                      </c:pt>
-                      <c:pt idx="14" c:formatCode="@">
-                        <c:v>7.15</c:v>
-                      </c:pt>
-                      <c:pt idx="15" c:formatCode="@">
-                        <c:v>7.16</c:v>
-                      </c:pt>
-                      <c:pt idx="16" c:formatCode="@">
-                        <c:v>7.17</c:v>
-                      </c:pt>
-                      <c:pt idx="17" c:formatCode="@">
-                        <c:v>7.18</c:v>
-                      </c:pt>
-                      <c:pt idx="18" c:formatCode="@">
-                        <c:v>7.19</c:v>
-                      </c:pt>
-                      <c:pt idx="19" c:formatCode="@">
-                        <c:v>7.20</c:v>
-                      </c:pt>
-                      <c:pt idx="20" c:formatCode="@">
-                        <c:v>7.21</c:v>
-                      </c:pt>
-                      <c:pt idx="21" c:formatCode="@">
-                        <c:v>7.22</c:v>
-                      </c:pt>
-                      <c:pt idx="22" c:formatCode="@">
-                        <c:v>7.23</c:v>
-                      </c:pt>
-                      <c:pt idx="23" c:formatCode="@">
-                        <c:v>7.24</c:v>
-                      </c:pt>
-                      <c:pt idx="24" c:formatCode="@">
-                        <c:v>7.25</c:v>
-                      </c:pt>
-                      <c:pt idx="25" c:formatCode="@">
-                        <c:v>7.26</c:v>
-                      </c:pt>
-                      <c:pt idx="26" c:formatCode="@">
-                        <c:v>7.27</c:v>
-                      </c:pt>
-                      <c:pt idx="27" c:formatCode="@">
-                        <c:v>7.28</c:v>
-                      </c:pt>
-                      <c:pt idx="28" c:formatCode="@">
-                        <c:v>7.29</c:v>
-                      </c:pt>
-                      <c:pt idx="29" c:formatCode="@">
-                        <c:v>7.30</c:v>
-                      </c:pt>
-                      <c:pt idx="30" c:formatCode="@">
-                        <c:v>7.31</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>每日用量明细!$G$6:$G$36</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00_ </c:formatCode>
-                      <c:ptCount val="31"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="932489740"/>
@@ -3703,10 +2963,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.771553680718867"/>
-          <c:y val="0.0840618695359785"/>
-          <c:w val="0.224244420653875"/>
-          <c:h val="0.558170813718897"/>
+          <c:x val="0.410787342406279"/>
+          <c:y val="0.0749375520399667"/>
+          <c:w val="0.58670785672539"/>
+          <c:h val="0.154038301415487"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3805,17 +3065,27 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-                <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-                <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-                <a:sym typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+                <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:cs typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:sym typeface="黑体" panose="02010609060101010101" charset="-122"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1000"/>
+              <a:rPr sz="1000" b="1">
+                <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:cs typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:sym typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              </a:rPr>
               <a:t>每月使用量</a:t>
             </a:r>
-            <a:endParaRPr sz="1000"/>
+            <a:endParaRPr sz="1000" b="1">
+              <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              <a:cs typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              <a:sym typeface="黑体" panose="02010609060101010101" charset="-122"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3823,7 +3093,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.901759289707333"/>
+          <c:x val="0.903012946205452"/>
           <c:y val="0.0429799426934097"/>
         </c:manualLayout>
       </c:layout>
@@ -3843,8 +3113,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0736564457632707"/>
-          <c:y val="0.0463228271251194"/>
+          <c:x val="0.0765231926452152"/>
+          <c:y val="0.0521148036253776"/>
           <c:w val="0.902604681833168"/>
           <c:h val="0.676822667940146"/>
         </c:manualLayout>
@@ -3854,317 +3124,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="6"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>每月用量对比!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>每月用量对比!$B$7:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" c:formatCode="0.00_ ">
-                  <c:v>AP.8797全合成研磨切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>每月用量对比!$C$7:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>285.79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>每月用量对比!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>每月用量对比!$B$7:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" c:formatCode="0.00_ ">
-                  <c:v>AP.8797全合成研磨切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>每月用量对比!$D$7:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>210.48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>每月用量对比!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>每月用量对比!$B$7:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" c:formatCode="0.00_ ">
-                  <c:v>AP.8797全合成研磨切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>每月用量对比!$E$7:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>631.85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>每月用量对比!$F$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>每月用量对比!$B$7:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" c:formatCode="0.00_ ">
-                  <c:v>AP.8797全合成研磨切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>每月用量对比!$F$7:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>817.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>每月用量对比!$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>每月用量对比!$B$7:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" c:formatCode="0.00_ ">
-                  <c:v>AP.8797全合成研磨切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>每月用量对比!$G$7:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1188.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>每月用量对比!$H$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>每月用量对比!$B$7:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" c:formatCode="0.00_ ">
-                  <c:v>AP.8797全合成研磨切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>每月用量对比!$H$7:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1068.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>每月用量对比!$I$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4193,20 +3157,38 @@
               <c:f>每月用量对比!$B$7:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" c:formatCode="0.00_ ">
-                  <c:v>AP.8797全合成研磨切削液</c:v>
+                <c:pt idx="0">
+                  <c:v>全合成研磨切削液S8L-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>全合成研磨切削液825-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>全合成研磨切削液S8L-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>全合成研磨切削液825-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>每月用量对比!$I$7:$I$11</c:f>
+              <c:f>每月用量对比!$C$7:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>428.33</c:v>
+                  <c:v>4190.26</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>10048.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.25</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>190.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4214,10 +3196,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>每月用量对比!$J$6</c:f>
+              <c:f>每月用量对比!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4246,15 +3228,24 @@
               <c:f>每月用量对比!$B$7:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" c:formatCode="0.00_ ">
-                  <c:v>AP.8797全合成研磨切削液</c:v>
+                <c:pt idx="0">
+                  <c:v>全合成研磨切削液S8L-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>全合成研磨切削液825-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>全合成研磨切削液S8L-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>全合成研磨切削液825-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>每月用量对比!$J$7:$J$11</c:f>
+              <c:f>每月用量对比!$D$7:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -4264,10 +3255,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>每月用量对比!$K$6</c:f>
+              <c:f>每月用量对比!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4296,15 +3287,24 @@
               <c:f>每月用量对比!$B$7:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" c:formatCode="0.00_ ">
-                  <c:v>AP.8797全合成研磨切削液</c:v>
+                <c:pt idx="0">
+                  <c:v>全合成研磨切削液S8L-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>全合成研磨切削液825-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>全合成研磨切削液S8L-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>全合成研磨切削液825-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>每月用量对比!$K$7:$K$11</c:f>
+              <c:f>每月用量对比!$E$7:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -4314,10 +3314,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>每月用量对比!$L$6</c:f>
+              <c:f>每月用量对比!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4346,15 +3346,24 @@
               <c:f>每月用量对比!$B$7:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" c:formatCode="0.00_ ">
-                  <c:v>AP.8797全合成研磨切削液</c:v>
+                <c:pt idx="0">
+                  <c:v>全合成研磨切削液S8L-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>全合成研磨切削液825-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>全合成研磨切削液S8L-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>全合成研磨切削液825-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>每月用量对比!$L$7:$L$11</c:f>
+              <c:f>每月用量对比!$F$7:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -4364,10 +3373,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>每月用量对比!$M$6</c:f>
+              <c:f>每月用量对比!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4396,15 +3405,24 @@
               <c:f>每月用量对比!$B$7:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" c:formatCode="0.00_ ">
-                  <c:v>AP.8797全合成研磨切削液</c:v>
+                <c:pt idx="0">
+                  <c:v>全合成研磨切削液S8L-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>全合成研磨切削液825-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>全合成研磨切削液S8L-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>全合成研磨切削液825-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>每月用量对比!$M$7:$M$11</c:f>
+              <c:f>每月用量对比!$G$7:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -4414,10 +3432,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>每月用量对比!$N$6</c:f>
+              <c:f>每月用量对比!$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4446,18 +3464,664 @@
               <c:f>每月用量对比!$B$7:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" c:formatCode="0.00_ ">
-                  <c:v>AP.8797全合成研磨切削液</c:v>
+                <c:pt idx="0">
+                  <c:v>全合成研磨切削液S8L-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>全合成研磨切削液825-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>全合成研磨切削液S8L-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>全合成研磨切削液825-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>每月用量对比!$N$7:$N$11</c:f>
+              <c:f>每月用量对比!$H$7:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="500"/>
+        <c:overlap val="-40"/>
+        <c:axId val="697480329"/>
+        <c:axId val="129005495"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="697480329"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="91908C"/>
+                </a:solidFill>
+                <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:cs typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:sym typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="129005495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129005495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="EAEAEA"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="91908C"/>
+                </a:solidFill>
+                <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:cs typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:sym typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="697480329"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="91908C"/>
+                </a:solidFill>
+                <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:cs typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:sym typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="91908C"/>
+                </a:solidFill>
+                <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:cs typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:sym typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="91908C"/>
+                </a:solidFill>
+                <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:cs typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:sym typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="91908C"/>
+                </a:solidFill>
+                <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:cs typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:sym typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="91908C"/>
+                </a:solidFill>
+                <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:cs typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:sym typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="91908C"/>
+                </a:solidFill>
+                <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:cs typeface="黑体" panose="02010609060101010101" charset="-122"/>
+                <a:sym typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.028229538808945"/>
+          <c:y val="0.828906930897287"/>
+          <c:w val="0.958249854585407"/>
+          <c:h val="0.154090548054011"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="91908C"/>
+              </a:solidFill>
+              <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              <a:cs typeface="黑体" panose="02010609060101010101" charset="-122"/>
+              <a:sym typeface="黑体" panose="02010609060101010101" charset="-122"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{93a50788-060d-4e79-975c-16dc73d5eef4}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="EAEAEA"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN">
+          <a:latin typeface="黑体" panose="02010609060101010101" charset="-122"/>
+          <a:ea typeface="黑体" panose="02010609060101010101" charset="-122"/>
+          <a:cs typeface="黑体" panose="02010609060101010101" charset="-122"/>
+          <a:sym typeface="黑体" panose="02010609060101010101" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0736508757189944"/>
+          <c:y val="0.0438178448504104"/>
+          <c:w val="0.902565759710463"/>
+          <c:h val="0.642546994969553"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每月用量对比!$A$7:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MO24111301600017 全合成研磨切削液S8L-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>每月用量对比!$C$5:$H$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>7月</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8月</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9月</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10月</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11月</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12月</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2025年</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每月用量对比!$C$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4190.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每月用量对比!$A$8:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MO25050803700013 全合成研磨切削液825-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>每月用量对比!$C$5:$H$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>7月</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8月</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9月</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10月</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11月</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12月</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2025年</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每月用量对比!$C$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10048.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每月用量对比!$A$9:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MO24082401300006 全合成研磨切削液S8L-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>每月用量对比!$C$5:$H$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>7月</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8月</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9月</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10月</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11月</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12月</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2025年</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每月用量对比!$C$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>每月用量对比!$A$10:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZRPYA1AA0001 全合成研磨切削液825-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>每月用量对比!$C$5:$H$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>7月</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8月</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9月</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10月</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11月</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12月</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2025年</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每月用量对比!$C$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>190.21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4536,7 +4200,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4578,1090 +4242,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.025722225812706"/>
-          <c:y val="0.834571583465263"/>
-          <c:w val="0.958249854585407"/>
-          <c:h val="0.154090548054011"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="91908C"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:sym typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{93a50788-060d-4e79-975c-16dc73d5eef4}"/>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:srgbClr val="EAEAEA"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN">
-          <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          <a:sym typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0736508757189944"/>
-          <c:y val="0.0438178448504104"/>
-          <c:w val="0.902565759710463"/>
-          <c:h val="0.642546994969553"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$B$5:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>月  份</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:blipFill rotWithShape="1">
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </a:blipFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="10000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5000P</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PT68#机床导轨油</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H3乳化切削液</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AW46#抗磨液压油</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CUT445金属加工切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]永裕每月用量对比!$B$7:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$C$5:$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2025年 1月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472C4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="10000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5000P</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PT68#机床导轨油</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H3乳化切削液</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AW46#抗磨液压油</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CUT445金属加工切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]永裕每月用量对比!$C$7:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5578.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>461.66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>243.38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>882.43</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>282.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$D$5:$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2025年 2月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:blipFill rotWithShape="1">
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </a:blipFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="10000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5000P</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PT68#机床导轨油</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H3乳化切削液</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AW46#抗磨液压油</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CUT445金属加工切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]永裕每月用量对比!$D$7:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$E$5:$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2025年 3月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:blipFill rotWithShape="1">
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </a:blipFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="10000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5000P</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PT68#机床导轨油</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H3乳化切削液</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AW46#抗磨液压油</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CUT445金属加工切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]永裕每月用量对比!$E$7:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$F$5:$F$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2025年 4月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="44546A">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="10000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5000P</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PT68#机床导轨油</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H3乳化切削液</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AW46#抗磨液压油</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CUT445金属加工切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]永裕每月用量对比!$F$7:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$G$5:$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2025年 5月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5000P</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PT68#机床导轨油</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H3乳化切削液</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AW46#抗磨液压油</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CUT445金属加工切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]永裕每月用量对比!$G$7:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$H$5:$H$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2025年 6月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5000P</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PT68#机床导轨油</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H3乳化切削液</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AW46#抗磨液压油</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CUT445金属加工切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]永裕每月用量对比!$H$7:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$I$5:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2025年 7月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5000P</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PT68#机床导轨油</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H3乳化切削液</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AW46#抗磨液压油</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CUT445金属加工切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]永裕每月用量对比!$I$7:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$J$5:$J$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2025年 8月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5000P</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PT68#机床导轨油</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H3乳化切削液</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AW46#抗磨液压油</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CUT445金属加工切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]永裕每月用量对比!$J$7:$J$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$K$5:$K$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2025年 9月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5000P</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PT68#机床导轨油</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H3乳化切削液</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AW46#抗磨液压油</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CUT445金属加工切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]永裕每月用量对比!$K$7:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$L$5:$L$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2025年 10月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5000P</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PT68#机床导轨油</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H3乳化切削液</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AW46#抗磨液压油</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CUT445金属加工切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]永裕每月用量对比!$L$7:$L$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$M$5:$M$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2025年 11月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5000P</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PT68#机床导轨油</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H3乳化切削液</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AW46#抗磨液压油</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CUT445金属加工切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]永裕每月用量对比!$M$7:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$N$5:$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2025年 12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]永裕每月用量对比!$A$7:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5000P</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PT68#机床导轨油</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>H3乳化切削液</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AW46#抗磨液压油</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CUT445金属加工切削液</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]永裕每月用量对比!$N$7:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="500"/>
-        <c:overlap val="-40"/>
-        <c:axId val="697480329"/>
-        <c:axId val="129005495"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="697480329"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="91908C"/>
-                </a:solidFill>
-                <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-                <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-                <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-                <a:sym typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="129005495"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="129005495"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="EAEAEA"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="91908C"/>
-                </a:solidFill>
-                <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-                <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-                <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-                <a:sym typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="697480329"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -7381,9 +5961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>151130</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>266065</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -7393,7 +5973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="63500" y="951865"/>
-          <a:ext cx="3126105" cy="0"/>
+          <a:ext cx="2591435" cy="10160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7426,13 +6006,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1606550</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -7444,8 +6024,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9525" y="9998075"/>
-          <a:ext cx="7796530" cy="79375"/>
+          <a:off x="9525" y="9680575"/>
+          <a:ext cx="7686040" cy="79375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7478,13 +6058,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>588010</xdr:colOff>
+      <xdr:colOff>541020</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>27940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1499870</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
@@ -7495,8 +6075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4696460" y="116840"/>
-          <a:ext cx="3109595" cy="360680"/>
+          <a:off x="4538980" y="116840"/>
+          <a:ext cx="3156585" cy="360680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7622,7 +6202,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
               <a:solidFill>
@@ -7687,13 +6267,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>135572</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>5397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>289242</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>83502</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7703,7 +6283,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="115570" y="9866630"/>
+          <a:off x="115570" y="9549130"/>
           <a:ext cx="192405" cy="153670"/>
           <a:chOff x="10217" y="9410"/>
           <a:chExt cx="1566" cy="590"/>
@@ -7785,13 +6365,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1442720</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>2268855</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -7800,8 +6380,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28575" y="4603750"/>
-        <a:ext cx="7722870" cy="2287905"/>
+        <a:off x="28575" y="4286250"/>
+        <a:ext cx="7612380" cy="2287905"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7814,15 +6394,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>36195</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2278380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1435100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1694180</xdr:rowOff>
+      <xdr:colOff>1442720</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1664335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7830,8 +6410,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28575" y="6931025"/>
-        <a:ext cx="7715250" cy="1684655"/>
+        <a:off x="36195" y="6583680"/>
+        <a:ext cx="7604760" cy="1684655"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7844,15 +6424,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768985</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1750695</xdr:rowOff>
+      <xdr:colOff>869950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1507490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1281430</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:colOff>1382395</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7869,7 +6449,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6007735" y="8636000"/>
+          <a:off x="5998210" y="8111490"/>
           <a:ext cx="1582420" cy="1576705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7989,8 +6569,8 @@
       <xdr:rowOff>208280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>405130</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1357630</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>216535</xdr:rowOff>
     </xdr:to>
@@ -8033,10 +6613,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>862330</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8044,8 +6624,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1171575" y="4886325"/>
-        <a:ext cx="10330180" cy="2398395"/>
+        <a:off x="1724025" y="4733925"/>
+        <a:ext cx="7653655" cy="2858135"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8056,124 +6636,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="永裕每日用量明细"/>
-      <sheetName val="永裕每月用量对比"/>
-      <sheetName val="数据值"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>2025年</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>月  份</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>1月</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>2月</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>3月</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>4月</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>5月</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>6月</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>7月</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>8月</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>9月</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>10月</v>
-          </cell>
-          <cell r="M6" t="str">
-            <v>11月</v>
-          </cell>
-          <cell r="N6" t="str">
-            <v>12月</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>5000P</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>5578.75</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>PT68#机床导轨油</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>461.66</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>H3乳化切削液</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>243.38</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>AW46#抗磨液压油</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>882.43</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>CUT445金属加工切削液</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>282.26</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8938,305 +7400,318 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.43333333333333" style="90" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="90" customWidth="1"/>
-    <col min="3" max="3" width="7.15833333333333" style="90" customWidth="1"/>
-    <col min="4" max="4" width="13.5333333333333" style="90" customWidth="1"/>
-    <col min="5" max="5" width="14.0416666666667" style="90" customWidth="1"/>
-    <col min="6" max="6" width="14.8333333333333" style="90" customWidth="1"/>
-    <col min="7" max="7" width="14.0416666666667" style="90" customWidth="1"/>
-    <col min="8" max="8" width="19.65" style="90" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="90"/>
-    <col min="10" max="11" width="9" style="90"/>
-    <col min="12" max="12" width="11.5" style="90"/>
-    <col min="13" max="16345" width="9" style="90"/>
+    <col min="1" max="1" width="5.43333333333333" style="79" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="79" customWidth="1"/>
+    <col min="3" max="3" width="7.15833333333333" style="79" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="19" style="79" customWidth="1"/>
+    <col min="6" max="6" width="14.8333333333333" style="79" customWidth="1"/>
+    <col min="7" max="7" width="14.0416666666667" style="79" customWidth="1"/>
+    <col min="8" max="8" width="19.65" style="79" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="79"/>
+    <col min="10" max="11" width="9" style="79"/>
+    <col min="12" max="12" width="11.5" style="79"/>
+    <col min="13" max="16345" width="9" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" s="90" customFormat="1" ht="7" customHeight="1"/>
-    <row r="2" s="90" customFormat="1" ht="21" customHeight="1" spans="4:5">
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-    </row>
-    <row r="3" s="90" customFormat="1" ht="21" customHeight="1" spans="4:5">
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
-    </row>
-    <row r="4" s="90" customFormat="1" ht="5" customHeight="1"/>
-    <row r="5" s="90" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A5" s="94" t="s">
+    <row r="1" s="79" customFormat="1" ht="7" customHeight="1"/>
+    <row r="2" s="79" customFormat="1" ht="21" customHeight="1" spans="4:5">
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+    </row>
+    <row r="3" s="79" customFormat="1" ht="21" customHeight="1" spans="4:5">
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+    </row>
+    <row r="4" s="79" customFormat="1" ht="5" customHeight="1"/>
+    <row r="5" s="79" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A5" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="94" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="94"/>
-    </row>
-    <row r="6" s="90" customFormat="1" ht="1" customHeight="1" spans="1:8">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-    </row>
-    <row r="7" s="90" customFormat="1" ht="2" customHeight="1"/>
-    <row r="8" s="90" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A8" s="96" t="s">
+      <c r="H5" s="86"/>
+    </row>
+    <row r="6" s="79" customFormat="1" ht="1" customHeight="1" spans="1:8">
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+    </row>
+    <row r="7" s="79" customFormat="1" ht="2" customHeight="1"/>
+    <row r="8" s="79" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A8" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99" t="s">
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="F8" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="G8" s="89"/>
+      <c r="H8" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="101" t="s">
+    </row>
+    <row r="9" s="80" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A9" s="90">
+        <v>1</v>
+      </c>
+      <c r="B9" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="102" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" s="91" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A9" s="103">
-        <v>1</v>
-      </c>
-      <c r="B9" s="104" t="s">
+      <c r="F9" s="93">
+        <v>4190.26</v>
+      </c>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106" t="s">
+      <c r="I9" s="130"/>
+    </row>
+    <row r="10" s="79" customFormat="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A10" s="96">
+        <v>2</v>
+      </c>
+      <c r="B10" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="107">
-        <v>428.33</v>
-      </c>
-      <c r="F9" s="108">
-        <v>9.991</v>
-      </c>
-      <c r="G9" s="109">
-        <f>E9*F9</f>
-        <v>4279.44503</v>
-      </c>
-      <c r="H9" s="110" t="s">
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" s="90" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A10" s="111"/>
-      <c r="B10" s="112" t="s">
+      <c r="F10" s="98">
+        <v>10048.88</v>
+      </c>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" s="80" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A11" s="90">
+        <v>3</v>
+      </c>
+      <c r="B11" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-    </row>
-    <row r="11" s="90" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A11" s="118"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="123"/>
-    </row>
-    <row r="12" s="90" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A12" s="124"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="129"/>
-    </row>
-    <row r="13" s="90" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A13" s="118"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="123"/>
-    </row>
-    <row r="14" s="90" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A14" s="124"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="129"/>
-    </row>
-    <row r="15" s="90" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A15" s="118"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="123"/>
-    </row>
-    <row r="16" s="90" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A16" s="133"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="138"/>
-    </row>
-    <row r="17" s="90" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A17" s="139" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="140">
-        <f>G17</f>
-        <v>4279.44503</v>
-      </c>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142" t="s">
+      <c r="F11" s="93">
+        <v>43.25</v>
+      </c>
+      <c r="G11" s="94"/>
+      <c r="H11" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="130"/>
+    </row>
+    <row r="12" s="79" customFormat="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A12" s="96">
+        <v>4</v>
+      </c>
+      <c r="B12" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="143">
-        <f>SUM(G9:G13)</f>
-        <v>4279.44503</v>
-      </c>
-      <c r="H17" s="144"/>
-    </row>
-    <row r="18" s="90" customFormat="1" ht="3" customHeight="1" spans="1:8">
-      <c r="A18" s="145"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="150"/>
-    </row>
-    <row r="19" s="90" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A19" s="151" t="s">
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="153"/>
-    </row>
-    <row r="20" s="90" customFormat="1" ht="3" customHeight="1" spans="1:8">
-      <c r="A20" s="154"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="156"/>
-    </row>
-    <row r="21" s="90" customFormat="1" ht="181" customHeight="1" spans="1:8">
-      <c r="A21" s="145"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="158"/>
-    </row>
-    <row r="22" ht="135" customHeight="1" spans="1:8">
-      <c r="A22" s="159"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="161"/>
-    </row>
-    <row r="23" ht="87" customHeight="1" spans="1:8">
-      <c r="A23" s="162" t="s">
+      <c r="F12" s="102">
+        <v>190.21</v>
+      </c>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" s="80" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A13" s="90"/>
+      <c r="B13" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="163"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="166"/>
-    </row>
-    <row r="24" ht="8" customHeight="1"/>
-    <row r="25" ht="9" customHeight="1" spans="2:8">
-      <c r="B25" s="167" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="130"/>
+    </row>
+    <row r="14" s="79" customFormat="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="96"/>
+    </row>
+    <row r="15" s="80" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A15" s="90"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="130"/>
+    </row>
+    <row r="16" s="79" customFormat="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="96"/>
+    </row>
+    <row r="17" s="79" customFormat="1" ht="3" customHeight="1" spans="1:8">
+      <c r="A17" s="107"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="112"/>
+    </row>
+    <row r="18" s="79" customFormat="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A18" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-    </row>
-    <row r="26" ht="14" customHeight="1"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="115"/>
+    </row>
+    <row r="19" s="79" customFormat="1" ht="3" customHeight="1" spans="1:8">
+      <c r="A19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
+    </row>
+    <row r="20" s="79" customFormat="1" ht="181" customHeight="1" spans="1:8">
+      <c r="A20" s="107"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
+    </row>
+    <row r="21" ht="135" customHeight="1" spans="1:8">
+      <c r="A21" s="121"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="123"/>
+    </row>
+    <row r="22" ht="87" customHeight="1" spans="1:8">
+      <c r="A22" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="128"/>
+    </row>
+    <row r="23" ht="8" customHeight="1"/>
+    <row r="24" ht="9" customHeight="1" spans="2:8">
+      <c r="B24" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+    </row>
+    <row r="25" ht="14" customHeight="1"/>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A19:H19"/>
+  <mergeCells count="24">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B24:H24"/>
     <mergeCell ref="G5:H6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId2" display="加注明细"/>
+    <hyperlink ref="H10" r:id="rId3" display="加注明细"/>
+    <hyperlink ref="H11" r:id="rId4" display="加注明细"/>
+    <hyperlink ref="H12" r:id="rId5" display="加注明细"/>
   </hyperlinks>
   <pageMargins left="0.196527777777778" right="0.0388888888888889" top="0.354166666666667" bottom="0" header="0.275" footer="0.0388888888888889"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
@@ -9248,28 +7723,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6:C36"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" outlineLevelCol="7"/>
@@ -9278,8 +7737,8 @@
     <col min="2" max="2" width="15.625" style="8" customWidth="1"/>
     <col min="3" max="4" width="24.4083333333333" style="8" customWidth="1"/>
     <col min="5" max="5" width="24.4083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.4083333333333" style="9" customWidth="1"/>
-    <col min="7" max="7" width="19.2583333333333" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.4083333333333" style="52" customWidth="1"/>
+    <col min="7" max="7" width="19.2583333333333" style="11" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
     <col min="11" max="12" width="5.625" style="1" customWidth="1"/>
@@ -9287,527 +7746,483 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="40" customHeight="1" spans="1:8">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="70" t="s">
-        <v>19</v>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="40" customHeight="1" spans="1:8">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="71">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="57">
         <v>45839</v>
       </c>
-      <c r="H3" s="72">
+      <c r="H3" s="58">
         <v>45869</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="21" customHeight="1" spans="2:7">
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="60"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="50" customHeight="1" spans="1:8">
-      <c r="A5" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="A5" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A6" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="83">
+      <c r="A6" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="70"/>
+    </row>
+    <row r="7" s="7" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A7" s="73"/>
+      <c r="B7" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="70"/>
+    </row>
+    <row r="8" s="7" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A8" s="73"/>
+      <c r="B8" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="70"/>
+    </row>
+    <row r="9" s="7" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A9" s="73"/>
+      <c r="B9" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="70"/>
+    </row>
+    <row r="10" s="7" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A10" s="73"/>
+      <c r="B10" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="70"/>
+    </row>
+    <row r="11" s="7" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A11" s="73"/>
+      <c r="B11" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="70"/>
+    </row>
+    <row r="12" s="7" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A12" s="73"/>
+      <c r="B12" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" s="7" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A13" s="73"/>
+      <c r="B13" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A14" s="73"/>
+      <c r="B14" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="70"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A15" s="73"/>
+      <c r="B15" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="70"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A16" s="73"/>
+      <c r="B16" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="70"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A17" s="73"/>
+      <c r="B17" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="70"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A18" s="73"/>
+      <c r="B18" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="70"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A19" s="73"/>
+      <c r="B19" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="70"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A20" s="73"/>
+      <c r="B20" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="70"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A21" s="73"/>
+      <c r="B21" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="71"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="70"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A22" s="73"/>
+      <c r="B22" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="70"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A23" s="73"/>
+      <c r="B23" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="70"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A24" s="73"/>
+      <c r="B24" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="71"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="70"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A25" s="73"/>
+      <c r="B25" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="70"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A26" s="73"/>
+      <c r="B26" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="71"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="70"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A27" s="73"/>
+      <c r="B27" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="70"/>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A28" s="73"/>
+      <c r="B28" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="71"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="70"/>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A29" s="73"/>
+      <c r="B29" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="70"/>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A30" s="73"/>
+      <c r="B30" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="70"/>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A31" s="73"/>
+      <c r="B31" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="73"/>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A32" s="73"/>
+      <c r="B32" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="70"/>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A33" s="73"/>
+      <c r="B33" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="70"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A34" s="73"/>
+      <c r="B34" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="70"/>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A35" s="73"/>
+      <c r="B35" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="70"/>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A36" s="73"/>
+      <c r="B36" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="70"/>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A37" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="75"/>
+      <c r="C37" s="73">
+        <f>SUM(C6:C36)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="82"/>
-    </row>
-    <row r="7" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A7" s="83"/>
-      <c r="B7" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="83">
+      <c r="D37" s="73">
+        <f>SUM(D6:D36)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-    </row>
-    <row r="8" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A8" s="83"/>
-      <c r="B8" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="83">
-        <v>15.03</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-    </row>
-    <row r="9" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A9" s="83"/>
-      <c r="B9" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="83">
+      <c r="E37" s="73">
+        <f>SUM(E6:E36)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-    </row>
-    <row r="10" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A10" s="83"/>
-      <c r="B10" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="83">
+      <c r="F37" s="73">
+        <f>SUM(F6:F36)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-    </row>
-    <row r="11" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A11" s="83"/>
-      <c r="B11" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="83">
+      <c r="G37" s="73">
+        <f>SUM(G6:G36)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-    </row>
-    <row r="12" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A12" s="83"/>
-      <c r="B12" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="83">
-        <v>60.12</v>
-      </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-    </row>
-    <row r="13" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A13" s="83"/>
-      <c r="B13" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="83">
-        <v>0</v>
-      </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A14" s="83"/>
-      <c r="B14" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="83">
-        <v>30.06</v>
-      </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A15" s="83"/>
-      <c r="B15" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="83">
-        <v>0</v>
-      </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A16" s="83"/>
-      <c r="B16" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="83">
-        <v>0</v>
-      </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A17" s="83"/>
-      <c r="B17" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="83">
-        <v>0</v>
-      </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A18" s="83"/>
-      <c r="B18" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="83">
-        <v>0</v>
-      </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A19" s="83"/>
-      <c r="B19" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="83">
-        <v>0</v>
-      </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A20" s="83"/>
-      <c r="B20" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="83">
-        <v>0</v>
-      </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A21" s="83"/>
-      <c r="B21" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="83">
-        <v>254.77</v>
-      </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A22" s="83"/>
-      <c r="B22" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="83">
-        <v>63.27</v>
-      </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A23" s="83"/>
-      <c r="B23" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="83">
-        <v>0</v>
-      </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A24" s="83"/>
-      <c r="B24" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="83">
-        <v>0</v>
-      </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A25" s="83"/>
-      <c r="B25" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="83">
-        <v>0</v>
-      </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="82"/>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A26" s="83"/>
-      <c r="B26" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="83">
-        <v>5.08</v>
-      </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A27" s="83"/>
-      <c r="B27" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="83">
-        <v>0</v>
-      </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A28" s="83"/>
-      <c r="B28" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="83">
-        <v>0</v>
-      </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A29" s="83"/>
-      <c r="B29" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="83">
-        <v>0</v>
-      </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A30" s="83"/>
-      <c r="B30" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="83">
-        <v>0</v>
-      </c>
-      <c r="D30" s="85"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A31" s="83"/>
-      <c r="B31" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="83">
-        <v>0</v>
-      </c>
-      <c r="D31" s="85"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="83"/>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A32" s="83"/>
-      <c r="B32" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="83">
-        <v>0</v>
-      </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A33" s="83"/>
-      <c r="B33" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="83">
-        <v>0</v>
-      </c>
-      <c r="D33" s="85"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="82"/>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A34" s="83"/>
-      <c r="B34" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="83">
-        <v>0</v>
-      </c>
-      <c r="D34" s="85"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="82"/>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A35" s="83"/>
-      <c r="B35" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="83">
-        <v>0</v>
-      </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="82"/>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A36" s="83"/>
-      <c r="B36" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="83">
-        <v>0</v>
-      </c>
-      <c r="D36" s="85"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="82"/>
-    </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A37" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="83">
-        <f>SUM(C6:C36)</f>
-        <v>428.33</v>
-      </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="85"/>
+      <c r="H37" s="75"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A38" s="87"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="87"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9824,568 +8239,418 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="10" customWidth="1"/>
-    <col min="7" max="8" width="12" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12" style="10" customWidth="1"/>
-    <col min="11" max="13" width="12" style="12" customWidth="1"/>
-    <col min="14" max="15" width="12" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9" style="1"/>
-    <col min="18" max="19" width="5.625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="12" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12" style="10" customWidth="1"/>
+    <col min="5" max="7" width="12" style="11" customWidth="1"/>
+    <col min="8" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1"/>
+    <col min="12" max="13" width="5.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
-      <c r="A1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="40" customHeight="1" spans="2:15">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="40" customHeight="1" spans="2:15">
-      <c r="B3" s="14"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="21" customHeight="1" spans="2:13">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A5" s="29" t="s">
+    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="40" customHeight="1" spans="2:9">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="40" customHeight="1" spans="2:9">
+      <c r="B3" s="13"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="21" customHeight="1" spans="2:7">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:9">
+      <c r="A5" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="61" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="36" customHeight="1" spans="1:15">
-      <c r="A6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="30" t="s">
+    </row>
+    <row r="6" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A6" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="C6" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="D6" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="E6" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="F6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="G6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="H6" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="O6" s="61"/>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="33">
-        <v>285.79</v>
-      </c>
-      <c r="D7" s="34">
-        <v>210.48</v>
-      </c>
-      <c r="E7" s="34">
-        <v>631.85</v>
-      </c>
-      <c r="F7" s="34">
-        <v>817.6</v>
-      </c>
-      <c r="G7" s="34">
-        <v>1188.98</v>
-      </c>
-      <c r="H7" s="34">
-        <v>1068.43</v>
-      </c>
-      <c r="I7" s="34">
-        <v>428.33</v>
-      </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34">
-        <f>SUM(C7:N7)</f>
-        <v>4631.46</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38">
-        <f t="shared" ref="O7:O11" si="0">SUM(C8:N8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="46" customHeight="1" spans="1:16">
-      <c r="A9" s="31"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="62"/>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="34" customHeight="1" spans="1:15">
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="34" customHeight="1" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="28">
+        <v>4190.26</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
+        <f>SUM(C7:H7)</f>
+        <v>4190.26</v>
+      </c>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="34" customHeight="1" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="29">
+        <v>10048.88</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="28">
+        <f>SUM(C8:H8)</f>
+        <v>10048.88</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="34" customHeight="1" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="28">
+        <v>43.25</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28">
+        <f>SUM(C9:H9)</f>
+        <v>43.25</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="34" customHeight="1" spans="1:12">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="29">
+        <v>190.21</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="28">
+        <f>SUM(C10:H10)</f>
+        <v>190.21</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="34" customHeight="1" spans="1:9">
       <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="46" customHeight="1" spans="1:17">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="68"/>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="63"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A14" s="44"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="63"/>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="46" customHeight="1" spans="1:16">
-      <c r="A15" s="41"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="62"/>
-    </row>
-    <row r="16" s="4" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="63"/>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A17" s="44"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="63"/>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="46" customHeight="1" spans="1:16">
-      <c r="A18" s="41"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="64"/>
-    </row>
-    <row r="19" s="7" customFormat="1" ht="28" customHeight="1" spans="1:15">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="46" customHeight="1" spans="1:11">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="34" customHeight="1" spans="1:9">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="34" customHeight="1" spans="1:9">
+      <c r="A14" s="35"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="46" customHeight="1" spans="1:10">
+      <c r="A15" s="32"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="48"/>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="34" customHeight="1" spans="1:9">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="34" customHeight="1" spans="1:9">
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="46" customHeight="1" spans="1:10">
+      <c r="A18" s="32"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" s="7" customFormat="1" ht="28" customHeight="1" spans="1:9">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" s="7" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="K20" s="66"/>
-    </row>
-    <row r="21" s="7" customFormat="1" hidden="1" customHeight="1" spans="1:11">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="K21" s="67"/>
-    </row>
-    <row r="22" s="7" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="K22" s="67"/>
-    </row>
-    <row r="23" s="7" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="K23" s="67"/>
-    </row>
-    <row r="24" s="7" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="K24" s="67"/>
-    </row>
-    <row r="25" s="7" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="K25" s="67"/>
-    </row>
-    <row r="26" s="7" customFormat="1" customHeight="1" spans="11:11">
-      <c r="K26" s="67"/>
-    </row>
-    <row r="27" s="7" customFormat="1" customHeight="1" spans="11:11">
-      <c r="K27" s="67"/>
-    </row>
-    <row r="28" s="7" customFormat="1" customHeight="1" spans="11:11">
-      <c r="K28" s="67"/>
-    </row>
-    <row r="29" s="7" customFormat="1" customHeight="1" spans="11:11">
-      <c r="K29" s="67"/>
-    </row>
-    <row r="30" s="7" customFormat="1" customHeight="1" spans="11:11">
-      <c r="K30" s="67"/>
-    </row>
-    <row r="31" s="7" customFormat="1" customHeight="1" spans="11:11">
-      <c r="K31" s="67"/>
-    </row>
-    <row r="32" s="7" customFormat="1" customHeight="1" spans="11:11">
-      <c r="K32" s="67"/>
-    </row>
-    <row r="33" s="7" customFormat="1" customHeight="1" spans="11:11">
-      <c r="K33" s="67"/>
-    </row>
-    <row r="34" s="7" customFormat="1" customHeight="1" spans="11:11">
-      <c r="K34" s="67"/>
-    </row>
-    <row r="35" s="7" customFormat="1" customHeight="1" spans="11:11">
-      <c r="K35" s="67"/>
-    </row>
-    <row r="36" s="7" customFormat="1" customHeight="1" spans="11:11">
-      <c r="K36" s="67"/>
-    </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="2:13">
+    </row>
+    <row r="20" s="7" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="E20" s="44"/>
+    </row>
+    <row r="21" s="7" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" s="7" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" s="7" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="E23" s="45"/>
+    </row>
+    <row r="24" s="7" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="E24" s="45"/>
+    </row>
+    <row r="25" s="7" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="E25" s="45"/>
+    </row>
+    <row r="26" s="7" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E26" s="45"/>
+    </row>
+    <row r="27" s="7" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" s="7" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" s="7" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" s="7" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E30" s="45"/>
+    </row>
+    <row r="31" s="7" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E31" s="45"/>
+    </row>
+    <row r="32" s="7" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E32" s="45"/>
+    </row>
+    <row r="33" s="7" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E33" s="45"/>
+    </row>
+    <row r="34" s="7" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E34" s="45"/>
+    </row>
+    <row r="35" s="7" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" s="7" customFormat="1" customHeight="1" spans="5:5">
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="2:13">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="2:13">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="2:13">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="2:13">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="2:7">
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="O9" formulaRange="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/template/statement_template.xlsx
+++ b/template/statement_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="中润对账单" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>客户名称：浙江巨跃齿轮有限公司</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>MO24111301600017</t>
-  </si>
-  <si>
-    <t>加注明细</t>
   </si>
   <si>
     <t>全合成研磨切削液825-1</t>
@@ -7402,8 +7399,8 @@
   <sheetPr/>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7493,9 +7490,7 @@
         <v>4190.26</v>
       </c>
       <c r="G9" s="94"/>
-      <c r="H9" s="95" t="s">
-        <v>9</v>
-      </c>
+      <c r="H9" s="95"/>
       <c r="I9" s="130"/>
     </row>
     <row r="10" s="79" customFormat="1" ht="25" customHeight="1" spans="1:8">
@@ -7503,40 +7498,36 @@
         <v>2</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="97"/>
       <c r="E10" s="97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="98">
         <v>10048.88</v>
       </c>
       <c r="G10" s="99"/>
-      <c r="H10" s="100" t="s">
-        <v>9</v>
-      </c>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" s="80" customFormat="1" ht="25" customHeight="1" spans="1:9">
       <c r="A11" s="90">
         <v>3</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="91"/>
       <c r="D11" s="91"/>
       <c r="E11" s="92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="93">
         <v>43.25</v>
       </c>
       <c r="G11" s="94"/>
-      <c r="H11" s="101" t="s">
-        <v>9</v>
-      </c>
+      <c r="H11" s="101"/>
       <c r="I11" s="130"/>
     </row>
     <row r="12" s="79" customFormat="1" ht="25" customHeight="1" spans="1:8">
@@ -7544,25 +7535,23 @@
         <v>4</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="97"/>
       <c r="D12" s="97"/>
       <c r="E12" s="97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="102">
         <v>190.21</v>
       </c>
       <c r="G12" s="103"/>
-      <c r="H12" s="104" t="s">
-        <v>9</v>
-      </c>
+      <c r="H12" s="104"/>
     </row>
     <row r="13" s="80" customFormat="1" ht="25" customHeight="1" spans="1:9">
       <c r="A13" s="90"/>
       <c r="B13" s="91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="91"/>
       <c r="D13" s="91"/>
@@ -7615,7 +7604,7 @@
     </row>
     <row r="18" s="79" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A18" s="113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="114"/>
       <c r="C18" s="114"/>
@@ -7657,7 +7646,7 @@
     </row>
     <row r="22" ht="87" customHeight="1" spans="1:8">
       <c r="A22" s="124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="125"/>
       <c r="C22" s="126"/>
@@ -7670,7 +7659,7 @@
     <row r="23" ht="8" customHeight="1"/>
     <row r="24" ht="9" customHeight="1" spans="2:8">
       <c r="B24" s="129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="129"/>
       <c r="D24" s="129"/>
@@ -7707,12 +7696,6 @@
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="G5:H6"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H9" r:id="rId2" display="加注明细"/>
-    <hyperlink ref="H10" r:id="rId3" display="加注明细"/>
-    <hyperlink ref="H11" r:id="rId4" display="加注明细"/>
-    <hyperlink ref="H12" r:id="rId5" display="加注明细"/>
-  </hyperlinks>
   <pageMargins left="0.196527777777778" right="0.0388888888888889" top="0.354166666666667" bottom="0" header="0.275" footer="0.0388888888888889"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
@@ -7725,7 +7708,7 @@
   <sheetPr/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6:F36"/>
@@ -7763,10 +7746,10 @@
       <c r="E2" s="54"/>
       <c r="F2" s="17"/>
       <c r="G2" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="56" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="40" customHeight="1" spans="1:8">
@@ -7793,32 +7776,32 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A5" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>23</v>
       </c>
       <c r="C5" s="64" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="67"/>
       <c r="H5" s="68"/>
     </row>
     <row r="6" s="7" customFormat="1" customHeight="1" spans="1:8">
       <c r="A6" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="70" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="71"/>
@@ -7830,7 +7813,7 @@
     <row r="7" s="7" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="73"/>
       <c r="B7" s="70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="71"/>
@@ -7842,7 +7825,7 @@
     <row r="8" s="7" customFormat="1" customHeight="1" spans="1:8">
       <c r="A8" s="73"/>
       <c r="B8" s="70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="71"/>
@@ -7854,7 +7837,7 @@
     <row r="9" s="7" customFormat="1" customHeight="1" spans="1:8">
       <c r="A9" s="73"/>
       <c r="B9" s="70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
@@ -7866,7 +7849,7 @@
     <row r="10" s="7" customFormat="1" customHeight="1" spans="1:8">
       <c r="A10" s="73"/>
       <c r="B10" s="70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="71"/>
@@ -7878,7 +7861,7 @@
     <row r="11" s="7" customFormat="1" customHeight="1" spans="1:8">
       <c r="A11" s="73"/>
       <c r="B11" s="70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="71"/>
@@ -7890,7 +7873,7 @@
     <row r="12" s="7" customFormat="1" customHeight="1" spans="1:8">
       <c r="A12" s="73"/>
       <c r="B12" s="70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
@@ -7902,7 +7885,7 @@
     <row r="13" s="7" customFormat="1" customHeight="1" spans="1:8">
       <c r="A13" s="73"/>
       <c r="B13" s="70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="71"/>
@@ -7914,7 +7897,7 @@
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A14" s="73"/>
       <c r="B14" s="70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -7926,7 +7909,7 @@
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A15" s="73"/>
       <c r="B15" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="71"/>
       <c r="D15" s="71"/>
@@ -7938,7 +7921,7 @@
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A16" s="73"/>
       <c r="B16" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -7950,7 +7933,7 @@
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A17" s="73"/>
       <c r="B17" s="70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
@@ -7962,7 +7945,7 @@
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A18" s="73"/>
       <c r="B18" s="70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -7974,7 +7957,7 @@
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A19" s="73"/>
       <c r="B19" s="70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="71"/>
@@ -7986,7 +7969,7 @@
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A20" s="73"/>
       <c r="B20" s="70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
@@ -7998,7 +7981,7 @@
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A21" s="73"/>
       <c r="B21" s="70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="74"/>
@@ -8010,7 +7993,7 @@
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A22" s="73"/>
       <c r="B22" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="74"/>
@@ -8022,7 +8005,7 @@
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A23" s="73"/>
       <c r="B23" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="74"/>
@@ -8034,7 +8017,7 @@
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A24" s="73"/>
       <c r="B24" s="70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="74"/>
@@ -8046,7 +8029,7 @@
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A25" s="73"/>
       <c r="B25" s="70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="74"/>
@@ -8058,7 +8041,7 @@
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A26" s="73"/>
       <c r="B26" s="70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="74"/>
@@ -8070,7 +8053,7 @@
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A27" s="73"/>
       <c r="B27" s="70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="74"/>
@@ -8082,7 +8065,7 @@
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A28" s="73"/>
       <c r="B28" s="70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="74"/>
@@ -8094,7 +8077,7 @@
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A29" s="73"/>
       <c r="B29" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="74"/>
@@ -8106,7 +8089,7 @@
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A30" s="73"/>
       <c r="B30" s="70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="74"/>
@@ -8118,7 +8101,7 @@
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A31" s="73"/>
       <c r="B31" s="70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="74"/>
@@ -8130,7 +8113,7 @@
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A32" s="73"/>
       <c r="B32" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="74"/>
@@ -8142,7 +8125,7 @@
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A33" s="73"/>
       <c r="B33" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="74"/>
@@ -8154,7 +8137,7 @@
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A34" s="73"/>
       <c r="B34" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="74"/>
@@ -8166,7 +8149,7 @@
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A35" s="73"/>
       <c r="B35" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="71"/>
       <c r="D35" s="74"/>
@@ -8178,7 +8161,7 @@
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A36" s="73"/>
       <c r="B36" s="70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="74"/>
@@ -8189,7 +8172,7 @@
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A37" s="75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="73">
@@ -8263,7 +8246,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
       <c r="A1" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -8304,11 +8287,11 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:9">
       <c r="A5" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -8316,33 +8299,33 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
       <c r="A6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="G6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="H6" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="I6" s="46"/>
     </row>
@@ -8370,10 +8353,10 @@
     </row>
     <row r="8" s="5" customFormat="1" ht="34" customHeight="1" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="29">
         <v>10048.88</v>
@@ -8393,10 +8376,10 @@
     </row>
     <row r="9" s="4" customFormat="1" ht="34" customHeight="1" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="28">
         <v>43.25</v>
@@ -8415,10 +8398,10 @@
     </row>
     <row r="10" s="5" customFormat="1" ht="34" customHeight="1" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="29">
         <v>190.21</v>

--- a/template/statement_template.xlsx
+++ b/template/statement_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="中润对账单" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>客户名称：浙江巨跃齿轮有限公司</t>
   </si>
@@ -149,7 +149,7 @@
   </si>
   <si>
     <t xml:space="preserve">                          
-                          用油型号
+                        用油型号
 </t>
   </si>
   <si>
@@ -158,99 +158,6 @@
   <si>
     <t>2025年
 7月</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>7.10</t>
-  </si>
-  <si>
-    <t>7.11</t>
-  </si>
-  <si>
-    <t>7.12</t>
-  </si>
-  <si>
-    <t>7.13</t>
-  </si>
-  <si>
-    <t>7.14</t>
-  </si>
-  <si>
-    <t>7.15</t>
-  </si>
-  <si>
-    <t>7.16</t>
-  </si>
-  <si>
-    <t>7.17</t>
-  </si>
-  <si>
-    <t>7.18</t>
-  </si>
-  <si>
-    <t>7.19</t>
-  </si>
-  <si>
-    <t>7.20</t>
-  </si>
-  <si>
-    <t>7.21</t>
-  </si>
-  <si>
-    <t>7.22</t>
-  </si>
-  <si>
-    <t>7.23</t>
-  </si>
-  <si>
-    <t>7.24</t>
-  </si>
-  <si>
-    <t>7.25</t>
-  </si>
-  <si>
-    <t>7.26</t>
-  </si>
-  <si>
-    <t>7.27</t>
-  </si>
-  <si>
-    <t>7.28</t>
-  </si>
-  <si>
-    <t>7.29</t>
-  </si>
-  <si>
-    <t>7.30</t>
-  </si>
-  <si>
-    <t>7.31</t>
   </si>
   <si>
     <t>合计</t>
@@ -263,14 +170,31 @@
 </t>
   </si>
   <si>
-    <t>2025年</t>
+    <t>2024年</t>
   </si>
   <si>
-    <t xml:space="preserve">
-设备编号</t>
+    <t>设备编号</t>
   </si>
   <si>
-    <t>月  份</t>
+    <t>油品名称</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
   </si>
   <si>
     <t>7月</t>
@@ -302,15 +226,15 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="General&quot;月&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="General&quot;月&quot;"/>
+    <numFmt numFmtId="182" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
     <numFmt numFmtId="183" formatCode="0_ "/>
     <numFmt numFmtId="184" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,32 +283,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="9" tint="-0.25"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -841,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -865,61 +763,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.15"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.15"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.15"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505"/>
@@ -946,48 +794,57 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFCADFB3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCADFB3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCADFB3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCADFB3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCADFB3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCADFB3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCADFB3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCADFB3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.15"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color theme="0" tint="-0.14996795556505"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color theme="0" tint="-0.14996795556505"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="0" tint="-0.14996795556505"/>
       </top>
@@ -998,7 +855,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.15"/>
+        <color theme="0" tint="-0.14996795556505"/>
       </left>
       <right/>
       <top style="thin">
@@ -1066,19 +923,6 @@
         <color theme="0"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCADFB3"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCADFB3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCADFB3"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1349,137 +1193,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1498,9 +1342,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1510,367 +1351,310 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="12" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="15" fillId="8" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="19" fillId="8" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2058,105 +1842,13 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>每日用量明细!$B$6:$B$36</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="@">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="@">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="@">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="@">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="@">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="@">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="@">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="@">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="@">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="@">
-                  <c:v>7.10</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="@">
-                  <c:v>7.11</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="@">
-                  <c:v>7.12</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="@">
-                  <c:v>7.13</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="@">
-                  <c:v>7.14</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="@">
-                  <c:v>7.15</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="@">
-                  <c:v>7.16</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="@">
-                  <c:v>7.17</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="@">
-                  <c:v>7.18</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="@">
-                  <c:v>7.19</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="@">
-                  <c:v>7.20</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="@">
-                  <c:v>7.21</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="@">
-                  <c:v>7.22</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="@">
-                  <c:v>7.23</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="@">
-                  <c:v>7.24</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="@">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="@">
-                  <c:v>7.26</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="@">
-                  <c:v>7.27</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="@">
-                  <c:v>7.28</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="@">
-                  <c:v>7.29</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="@">
-                  <c:v>7.30</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="@">
-                  <c:v>7.31</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2164,99 +1856,6 @@
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2271,7 +1870,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>全合成研磨切削液S8L-1</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2292,105 +1891,13 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>每日用量明细!$B$6:$B$36</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="@">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="@">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="@">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="@">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="@">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="@">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="@">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="@">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="@">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="@">
-                  <c:v>7.10</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="@">
-                  <c:v>7.11</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="@">
-                  <c:v>7.12</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="@">
-                  <c:v>7.13</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="@">
-                  <c:v>7.14</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="@">
-                  <c:v>7.15</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="@">
-                  <c:v>7.16</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="@">
-                  <c:v>7.17</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="@">
-                  <c:v>7.18</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="@">
-                  <c:v>7.19</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="@">
-                  <c:v>7.20</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="@">
-                  <c:v>7.21</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="@">
-                  <c:v>7.22</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="@">
-                  <c:v>7.23</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="@">
-                  <c:v>7.24</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="@">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="@">
-                  <c:v>7.26</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="@">
-                  <c:v>7.27</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="@">
-                  <c:v>7.28</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="@">
-                  <c:v>7.29</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="@">
-                  <c:v>7.30</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="@">
-                  <c:v>7.31</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2412,7 +1919,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>全合成研磨切削液825-1</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2433,105 +1940,13 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>每日用量明细!$B$6:$B$36</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="@">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="@">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="@">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="@">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="@">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="@">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="@">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="@">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="@">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="@">
-                  <c:v>7.10</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="@">
-                  <c:v>7.11</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="@">
-                  <c:v>7.12</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="@">
-                  <c:v>7.13</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="@">
-                  <c:v>7.14</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="@">
-                  <c:v>7.15</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="@">
-                  <c:v>7.16</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="@">
-                  <c:v>7.17</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="@">
-                  <c:v>7.18</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="@">
-                  <c:v>7.19</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="@">
-                  <c:v>7.20</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="@">
-                  <c:v>7.21</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="@">
-                  <c:v>7.22</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="@">
-                  <c:v>7.23</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="@">
-                  <c:v>7.24</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="@">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="@">
-                  <c:v>7.26</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="@">
-                  <c:v>7.27</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="@">
-                  <c:v>7.28</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="@">
-                  <c:v>7.29</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="@">
-                  <c:v>7.30</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="@">
-                  <c:v>7.31</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2553,7 +1968,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>全合成研磨切削液S8L-2</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2574,105 +1989,13 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>每日用量明细!$B$6:$B$36</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="@">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="@">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="@">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="@">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="@">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="@">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="@">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="@">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="@">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="@">
-                  <c:v>7.10</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="@">
-                  <c:v>7.11</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="@">
-                  <c:v>7.12</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="@">
-                  <c:v>7.13</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="@">
-                  <c:v>7.14</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="@">
-                  <c:v>7.15</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="@">
-                  <c:v>7.16</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="@">
-                  <c:v>7.17</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="@">
-                  <c:v>7.18</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="@">
-                  <c:v>7.19</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="@">
-                  <c:v>7.20</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="@">
-                  <c:v>7.21</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="@">
-                  <c:v>7.22</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="@">
-                  <c:v>7.23</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="@">
-                  <c:v>7.24</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="@">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="@">
-                  <c:v>7.26</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="@">
-                  <c:v>7.27</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="@">
-                  <c:v>7.28</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="@">
-                  <c:v>7.29</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="@">
-                  <c:v>7.30</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="@">
-                  <c:v>7.31</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2694,7 +2017,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>全合成研磨切削液825-2</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2715,105 +2038,13 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>每日用量明细!$B$6:$B$36</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="31"/>
-                <c:pt idx="0" c:formatCode="@">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="@">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="@">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="@">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="@">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="@">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="@">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="@">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="@">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="@">
-                  <c:v>7.10</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="@">
-                  <c:v>7.11</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="@">
-                  <c:v>7.12</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="@">
-                  <c:v>7.13</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="@">
-                  <c:v>7.14</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="@">
-                  <c:v>7.15</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="@">
-                  <c:v>7.16</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="@">
-                  <c:v>7.17</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="@">
-                  <c:v>7.18</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="@">
-                  <c:v>7.19</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="@">
-                  <c:v>7.20</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="@">
-                  <c:v>7.21</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="@">
-                  <c:v>7.22</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="@">
-                  <c:v>7.23</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="@">
-                  <c:v>7.24</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="@">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="@">
-                  <c:v>7.26</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="@">
-                  <c:v>7.27</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="@">
-                  <c:v>7.28</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="@">
-                  <c:v>7.29</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="@">
-                  <c:v>7.30</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="@">
-                  <c:v>7.31</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3129,7 +2360,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7月</c:v>
+                  <c:v>1月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3150,43 +2381,20 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>每月用量对比!$B$7:$B$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>全合成研磨切削液S8L-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>全合成研磨切削液825-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全合成研磨切削液S8L-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>全合成研磨切削液825-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>每月用量对比!$C$7:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4190.26</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="General">
-                  <c:v>10048.88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43.25</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="General">
-                  <c:v>190.21</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3200,7 +2408,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8月</c:v>
+                  <c:v>2月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3221,30 +2429,19 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>每月用量对比!$B$7:$B$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>全合成研磨切削液S8L-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>全合成研磨切削液825-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全合成研磨切削液S8L-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>全合成研磨切削液825-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>每月用量对比!$D$7:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -3259,7 +2456,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9月</c:v>
+                  <c:v>3月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3280,30 +2477,19 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>每月用量对比!$B$7:$B$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>全合成研磨切削液S8L-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>全合成研磨切削液825-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全合成研磨切削液S8L-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>全合成研磨切削液825-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>每月用量对比!$E$7:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -3318,7 +2504,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10月</c:v>
+                  <c:v>4月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3339,30 +2525,19 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>每月用量对比!$B$7:$B$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>全合成研磨切削液S8L-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>全合成研磨切削液825-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全合成研磨切削液S8L-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>全合成研磨切削液825-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>每月用量对比!$F$7:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -3377,7 +2552,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11月</c:v>
+                  <c:v>5月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3398,30 +2573,19 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>每月用量对比!$B$7:$B$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>全合成研磨切削液S8L-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>全合成研磨切削液825-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全合成研磨切削液S8L-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>全合成研磨切削液825-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>每月用量对比!$G$7:$G$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -3436,7 +2600,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12月</c:v>
+                  <c:v>6月</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3457,30 +2621,19 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>每月用量对比!$B$7:$B$11</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>全合成研磨切削液S8L-1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>全合成研磨切削液825-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>全合成研磨切削液S8L-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>全合成研磨切削液825-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>每月用量对比!$H$7:$H$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
@@ -3560,7 +2713,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3840,7 +2993,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MO24111301600017 全合成研磨切削液S8L-1</c:v>
+                  <c:v>设备编号 油品名称</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3859,47 +3012,55 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>每月用量对比!$C$5:$H$6</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>7月</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8月</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>9月</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>10月</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>11月</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>12月</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2025年</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>每月用量对比!$C$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>每月用量对比!$C$7:$H$7</c:f>
+              <c:f>(每月用量对比!$A$7:$N$7,每月用量对比!$C$7:$N$7)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4190.26</c:v>
-                </c:pt>
+                <c:ptCount val="26"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3907,17 +3068,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>每月用量对比!$A$8:$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MO25050803700013 全合成研磨切削液825-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -3932,47 +3082,55 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>每月用量对比!$C$5:$H$6</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>7月</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8月</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>9月</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>10月</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>11月</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>12月</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2025年</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>每月用量对比!$C$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>每月用量对比!$C$8:$H$8</c:f>
+              <c:f>每月用量对比!$A$8:$N$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10048.88</c:v>
-                </c:pt>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="14"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3980,17 +3138,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>每月用量对比!$A$9:$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MO24082401300006 全合成研磨切削液S8L-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -4005,47 +3152,55 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>每月用量对比!$C$5:$H$6</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>7月</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8月</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>9月</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>10月</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>11月</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>12月</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2025年</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>每月用量对比!$C$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>每月用量对比!$C$9:$H$9</c:f>
+              <c:f>每月用量对比!$A$9:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>43.25</c:v>
-                </c:pt>
+                <c:ptCount val="14"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4053,17 +3208,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>每月用量对比!$A$10:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ZRPYA1AA0001 全合成研磨切削液825-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -4078,47 +3222,195 @@
             <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>每月用量对比!$C$5:$H$6</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>7月</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8月</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>9月</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>10月</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>11月</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>12月</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2025年</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>每月用量对比!$C$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>每月用量对比!$C$10:$H$10</c:f>
+              <c:f>每月用量对比!$A$10:$N$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="14"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>每月用量对比!$C$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>190.21</c:v>
-                </c:pt>
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每月用量对比!$A$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="14"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>每月用量对比!$C$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>每月用量对比!$A$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="14"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6474,7 +5766,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>624205</xdr:colOff>
+      <xdr:colOff>509905</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>216535</xdr:rowOff>
     </xdr:to>
@@ -6518,7 +5810,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>624205</xdr:colOff>
+      <xdr:colOff>509905</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>216535</xdr:rowOff>
     </xdr:to>
@@ -6604,16 +5896,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6621,8 +5913,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1724025" y="4733925"/>
-        <a:ext cx="7653655" cy="2858135"/>
+        <a:off x="952500" y="5308600"/>
+        <a:ext cx="11720830" cy="3733800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7399,274 +6691,274 @@
   <sheetPr/>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.43333333333333" style="79" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="79" customWidth="1"/>
-    <col min="3" max="3" width="7.15833333333333" style="79" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="79" customWidth="1"/>
-    <col min="5" max="5" width="19" style="79" customWidth="1"/>
-    <col min="6" max="6" width="14.8333333333333" style="79" customWidth="1"/>
-    <col min="7" max="7" width="14.0416666666667" style="79" customWidth="1"/>
-    <col min="8" max="8" width="19.65" style="79" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="79"/>
-    <col min="10" max="11" width="9" style="79"/>
-    <col min="12" max="12" width="11.5" style="79"/>
-    <col min="13" max="16345" width="9" style="79"/>
+    <col min="1" max="1" width="5.43333333333333" style="59" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="59" customWidth="1"/>
+    <col min="3" max="3" width="7.15833333333333" style="59" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="59" customWidth="1"/>
+    <col min="5" max="5" width="19" style="59" customWidth="1"/>
+    <col min="6" max="6" width="14.8333333333333" style="59" customWidth="1"/>
+    <col min="7" max="7" width="14.0416666666667" style="59" customWidth="1"/>
+    <col min="8" max="8" width="19.65" style="59" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="59"/>
+    <col min="10" max="11" width="9" style="59"/>
+    <col min="12" max="12" width="11.5" style="59"/>
+    <col min="13" max="16345" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" s="79" customFormat="1" ht="7" customHeight="1"/>
-    <row r="2" s="79" customFormat="1" ht="21" customHeight="1" spans="4:5">
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-    </row>
-    <row r="3" s="79" customFormat="1" ht="21" customHeight="1" spans="4:5">
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-    </row>
-    <row r="4" s="79" customFormat="1" ht="5" customHeight="1"/>
-    <row r="5" s="79" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A5" s="83" t="s">
+    <row r="1" s="59" customFormat="1" ht="7" customHeight="1"/>
+    <row r="2" s="59" customFormat="1" ht="21" customHeight="1" spans="4:5">
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" s="59" customFormat="1" ht="21" customHeight="1" spans="4:5">
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+    </row>
+    <row r="4" s="59" customFormat="1" ht="5" customHeight="1"/>
+    <row r="5" s="59" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="86"/>
-    </row>
-    <row r="6" s="79" customFormat="1" ht="1" customHeight="1" spans="1:8">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-    </row>
-    <row r="7" s="79" customFormat="1" ht="2" customHeight="1"/>
-    <row r="8" s="79" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A8" s="87" t="s">
+      <c r="H5" s="66"/>
+    </row>
+    <row r="6" s="59" customFormat="1" ht="1" customHeight="1" spans="1:8">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+    </row>
+    <row r="7" s="59" customFormat="1" ht="2" customHeight="1"/>
+    <row r="8" s="59" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A8" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="87" t="s">
+      <c r="G8" s="69"/>
+      <c r="H8" s="67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" s="80" customFormat="1" ht="25" customHeight="1" spans="1:9">
-      <c r="A9" s="90">
+    <row r="9" s="60" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A9" s="70">
         <v>1</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92" t="s">
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="93">
+      <c r="F9" s="73">
         <v>4190.26</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="130"/>
-    </row>
-    <row r="10" s="79" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A10" s="96">
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="110"/>
+    </row>
+    <row r="10" s="59" customFormat="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A10" s="76">
         <v>2</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="78">
         <v>10048.88</v>
       </c>
-      <c r="G10" s="99"/>
-      <c r="H10" s="100"/>
-    </row>
-    <row r="11" s="80" customFormat="1" ht="25" customHeight="1" spans="1:9">
-      <c r="A11" s="90">
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
+    </row>
+    <row r="11" s="60" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A11" s="70">
         <v>3</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="73">
         <v>43.25</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="130"/>
-    </row>
-    <row r="12" s="79" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A12" s="96">
+      <c r="G11" s="74"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="110"/>
+    </row>
+    <row r="12" s="59" customFormat="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A12" s="76">
         <v>4</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97" t="s">
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="82">
         <v>190.21</v>
       </c>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
-    </row>
-    <row r="13" s="80" customFormat="1" ht="25" customHeight="1" spans="1:9">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91" t="s">
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
+    </row>
+    <row r="13" s="60" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A13" s="70"/>
+      <c r="B13" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="130"/>
-    </row>
-    <row r="14" s="79" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A14" s="96"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="96"/>
-    </row>
-    <row r="15" s="80" customFormat="1" ht="25" customHeight="1" spans="1:9">
-      <c r="A15" s="90"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="130"/>
-    </row>
-    <row r="16" s="79" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A16" s="96"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="96"/>
-    </row>
-    <row r="17" s="79" customFormat="1" ht="3" customHeight="1" spans="1:8">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="112"/>
-    </row>
-    <row r="18" s="79" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A18" s="113" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="110"/>
+    </row>
+    <row r="14" s="59" customFormat="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="76"/>
+    </row>
+    <row r="15" s="60" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A15" s="70"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="110"/>
+    </row>
+    <row r="16" s="59" customFormat="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="76"/>
+    </row>
+    <row r="17" s="59" customFormat="1" ht="3" customHeight="1" spans="1:8">
+      <c r="A17" s="87"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+    </row>
+    <row r="18" s="59" customFormat="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A18" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="115"/>
-    </row>
-    <row r="19" s="79" customFormat="1" ht="3" customHeight="1" spans="1:8">
-      <c r="A19" s="116"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-    </row>
-    <row r="20" s="79" customFormat="1" ht="181" customHeight="1" spans="1:8">
-      <c r="A20" s="107"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="95"/>
+    </row>
+    <row r="19" s="59" customFormat="1" ht="3" customHeight="1" spans="1:8">
+      <c r="A19" s="96"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+    </row>
+    <row r="20" s="59" customFormat="1" ht="181" customHeight="1" spans="1:8">
+      <c r="A20" s="87"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="100"/>
     </row>
     <row r="21" ht="135" customHeight="1" spans="1:8">
-      <c r="A21" s="121"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="123"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="103"/>
     </row>
     <row r="22" ht="87" customHeight="1" spans="1:8">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="128"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="108"/>
     </row>
     <row r="23" ht="8" customHeight="1"/>
     <row r="24" ht="9" customHeight="1" spans="2:8">
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
     </row>
     <row r="25" ht="14" customHeight="1"/>
   </sheetData>
@@ -7708,20 +7000,20 @@
   <sheetPr/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6:F36"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="1"/>
-    <col min="2" max="2" width="15.625" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.4083333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="24.4083333333333" style="7" customWidth="1"/>
     <col min="5" max="5" width="24.4083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.4083333333333" style="52" customWidth="1"/>
-    <col min="7" max="7" width="19.2583333333333" style="11" customWidth="1"/>
+    <col min="6" max="6" width="24.4083333333333" style="27" customWidth="1"/>
+    <col min="7" max="7" width="19.2583333333333" style="28" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
     <col min="11" max="12" width="5.625" style="1" customWidth="1"/>
@@ -7729,483 +7021,416 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="40" customHeight="1" spans="1:8">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="55" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="40" customHeight="1" spans="1:8">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="57">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35">
         <v>45839</v>
       </c>
-      <c r="H3" s="58">
+      <c r="H3" s="36">
         <v>45869</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="21" customHeight="1" spans="2:7">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="50" customHeight="1" spans="1:8">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
-    </row>
-    <row r="6" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A6" s="69" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" s="6" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" s="6" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A7" s="53"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="50"/>
+    </row>
+    <row r="8" s="6" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A8" s="53"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" s="6" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A9" s="53"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" s="6" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A10" s="53"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="50"/>
+    </row>
+    <row r="11" s="6" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A11" s="53"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" s="6" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A12" s="53"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" s="6" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A13" s="53"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="50"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A14" s="53"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="50"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A15" s="53"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="50"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A16" s="53"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="50"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A17" s="53"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A18" s="53"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="50"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A19" s="53"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="50"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A20" s="53"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="50"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A21" s="53"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="50"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A22" s="53"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="50"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A23" s="53"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="50"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A24" s="53"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="50"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A25" s="53"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="50"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A26" s="53"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="50"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A27" s="53"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="50"/>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A28" s="53"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="50"/>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A29" s="53"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="50"/>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A30" s="53"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="50"/>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A31" s="53"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A32" s="53"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="50"/>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A33" s="53"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="50"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A34" s="53"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="50"/>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A35" s="53"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="50"/>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A36" s="53"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="50"/>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A37" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="70"/>
-    </row>
-    <row r="7" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A7" s="73"/>
-      <c r="B7" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="70"/>
-    </row>
-    <row r="8" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A8" s="73"/>
-      <c r="B8" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="70"/>
-    </row>
-    <row r="9" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A9" s="73"/>
-      <c r="B9" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="70"/>
-    </row>
-    <row r="10" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A10" s="73"/>
-      <c r="B10" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="70"/>
-    </row>
-    <row r="11" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A11" s="73"/>
-      <c r="B11" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="70"/>
-    </row>
-    <row r="12" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A12" s="73"/>
-      <c r="B12" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="70"/>
-    </row>
-    <row r="13" s="7" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A13" s="73"/>
-      <c r="B13" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="70"/>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A14" s="73"/>
-      <c r="B14" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="70"/>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A15" s="73"/>
-      <c r="B15" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="70"/>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A16" s="73"/>
-      <c r="B16" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="70"/>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A17" s="73"/>
-      <c r="B17" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="70"/>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A18" s="73"/>
-      <c r="B18" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="70"/>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A19" s="73"/>
-      <c r="B19" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="70"/>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A20" s="73"/>
-      <c r="B20" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="70"/>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A21" s="73"/>
-      <c r="B21" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="70"/>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A22" s="73"/>
-      <c r="B22" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="70"/>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A23" s="73"/>
-      <c r="B23" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="70"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A24" s="73"/>
-      <c r="B24" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="70"/>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A25" s="73"/>
-      <c r="B25" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="70"/>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A26" s="73"/>
-      <c r="B26" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="70"/>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A27" s="73"/>
-      <c r="B27" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="70"/>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A28" s="73"/>
-      <c r="B28" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="70"/>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A29" s="73"/>
-      <c r="B29" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="70"/>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A30" s="73"/>
-      <c r="B30" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="70"/>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A31" s="73"/>
-      <c r="B31" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="73"/>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A32" s="73"/>
-      <c r="B32" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="70"/>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A33" s="73"/>
-      <c r="B33" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="70"/>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A34" s="73"/>
-      <c r="B34" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="70"/>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A35" s="73"/>
-      <c r="B35" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="70"/>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A36" s="73"/>
-      <c r="B36" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="70"/>
-    </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A37" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="73">
+      <c r="B37" s="55"/>
+      <c r="C37" s="53">
         <f>SUM(C6:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="73">
+      <c r="D37" s="53">
         <f>SUM(D6:D36)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="73">
+      <c r="E37" s="53">
         <f>SUM(E6:E36)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="73">
+      <c r="F37" s="53">
         <f>SUM(F6:F36)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="73">
+      <c r="G37" s="53">
         <f>SUM(G6:G36)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="75"/>
+      <c r="H37" s="53">
+        <f>SUM(H6:H36)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="76"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8215,9 +7440,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="B6:B36" numberStoredAsText="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8225,411 +7447,418 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12" style="10" customWidth="1"/>
-    <col min="5" max="7" width="12" style="11" customWidth="1"/>
-    <col min="8" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="13" width="5.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="19" style="7" customWidth="1"/>
+    <col min="3" max="14" width="9.875" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
-      <c r="A1" s="12" t="s">
-        <v>56</v>
+    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
+      <c r="A1" s="9" t="s">
+        <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="40" customHeight="1" spans="2:9">
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="40" customHeight="1" spans="2:9">
-      <c r="B3" s="13"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="21" customHeight="1" spans="2:7">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:9">
-      <c r="A5" s="26" t="s">
-        <v>57</v>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="40" customHeight="1" spans="2:14">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="40" customHeight="1" spans="2:14">
+      <c r="B3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="21" customHeight="1" spans="2:14">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A5" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27" t="s">
-        <v>58</v>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
+        <v>27</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="46" t="s">
-        <v>55</v>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
-      <c r="A6" s="26" t="s">
-        <v>59</v>
+    <row r="6" s="4" customFormat="1" ht="36" customHeight="1" spans="1:15">
+      <c r="A6" s="18" t="s">
+        <v>28</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>60</v>
+      <c r="B6" s="15" t="s">
+        <v>29</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>61</v>
+      <c r="C6" s="18" t="s">
+        <v>30</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>62</v>
+      <c r="D6" s="18" t="s">
+        <v>31</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>63</v>
+      <c r="E6" s="18" t="s">
+        <v>32</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>64</v>
+      <c r="F6" s="18" t="s">
+        <v>33</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>65</v>
+      <c r="G6" s="18" t="s">
+        <v>34</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>66</v>
+      <c r="H6" s="18" t="s">
+        <v>35</v>
       </c>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="34" customHeight="1" spans="1:11">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
+      <c r="I6" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
+      <c r="J6" s="18" t="s">
+        <v>37</v>
       </c>
-      <c r="C7" s="28">
-        <v>4190.26</v>
+      <c r="K6" s="18" t="s">
+        <v>38</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28">
-        <f>SUM(C7:H7)</f>
-        <v>4190.26</v>
+      <c r="L6" s="18" t="s">
+        <v>39</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="34" customHeight="1" spans="1:12">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
+      <c r="M6" s="18" t="s">
+        <v>40</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
+      <c r="N6" s="18" t="s">
+        <v>41</v>
       </c>
-      <c r="C8" s="29">
-        <v>10048.88</v>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="34" customHeight="1" spans="1:15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="26">
+        <f t="shared" ref="O7:O12" si="0">SUM(C7:N7)</f>
+        <v>0</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="28">
-        <f>SUM(C8:H8)</f>
-        <v>10048.88</v>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="34" customHeight="1" spans="1:15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" s="4" customFormat="1" ht="34" customHeight="1" spans="1:11">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="34" customHeight="1" spans="1:15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="34" customHeight="1" spans="1:15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="C9" s="28">
-        <v>43.25</v>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="34" customHeight="1" spans="1:15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28">
-        <f>SUM(C9:H9)</f>
-        <v>43.25</v>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="34" customHeight="1" spans="1:15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="34" customHeight="1" spans="1:12">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="29">
-        <v>190.21</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="28">
-        <f>SUM(C10:H10)</f>
-        <v>190.21</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="34" customHeight="1" spans="1:9">
-      <c r="A11" s="31"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="46" customHeight="1" spans="1:11">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="49"/>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="34" customHeight="1" spans="1:9">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="50"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="34" customHeight="1" spans="1:9">
-      <c r="A14" s="35"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="50"/>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="46" customHeight="1" spans="1:10">
-      <c r="A15" s="32"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="48"/>
-    </row>
-    <row r="16" s="4" customFormat="1" ht="34" customHeight="1" spans="1:9">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="50"/>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="34" customHeight="1" spans="1:9">
-      <c r="A17" s="35"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="50"/>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="46" customHeight="1" spans="1:10">
-      <c r="A18" s="32"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="51"/>
-    </row>
-    <row r="19" s="7" customFormat="1" ht="28" customHeight="1" spans="1:9">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" s="7" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="E20" s="44"/>
-    </row>
-    <row r="21" s="7" customFormat="1" hidden="1" customHeight="1" spans="1:5">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="E21" s="45"/>
-    </row>
-    <row r="22" s="7" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="E22" s="45"/>
-    </row>
-    <row r="23" s="7" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="E23" s="45"/>
-    </row>
-    <row r="24" s="7" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="E24" s="45"/>
-    </row>
-    <row r="25" s="7" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="E25" s="45"/>
-    </row>
-    <row r="26" s="7" customFormat="1" customHeight="1" spans="5:5">
-      <c r="E26" s="45"/>
-    </row>
-    <row r="27" s="7" customFormat="1" customHeight="1" spans="5:5">
-      <c r="E27" s="45"/>
-    </row>
-    <row r="28" s="7" customFormat="1" customHeight="1" spans="5:5">
-      <c r="E28" s="45"/>
-    </row>
-    <row r="29" s="7" customFormat="1" customHeight="1" spans="5:5">
-      <c r="E29" s="45"/>
-    </row>
-    <row r="30" s="7" customFormat="1" customHeight="1" spans="5:5">
-      <c r="E30" s="45"/>
-    </row>
-    <row r="31" s="7" customFormat="1" customHeight="1" spans="5:5">
-      <c r="E31" s="45"/>
-    </row>
-    <row r="32" s="7" customFormat="1" customHeight="1" spans="5:5">
-      <c r="E32" s="45"/>
-    </row>
-    <row r="33" s="7" customFormat="1" customHeight="1" spans="5:5">
-      <c r="E33" s="45"/>
-    </row>
-    <row r="34" s="7" customFormat="1" customHeight="1" spans="5:5">
-      <c r="E34" s="45"/>
-    </row>
-    <row r="35" s="7" customFormat="1" customHeight="1" spans="5:5">
-      <c r="E35" s="45"/>
-    </row>
-    <row r="36" s="7" customFormat="1" customHeight="1" spans="5:5">
-      <c r="E36" s="45"/>
-    </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+    </row>
+    <row r="13" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+    </row>
+    <row r="14" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+    </row>
+    <row r="15" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+    </row>
+    <row r="16" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+    </row>
+    <row r="17" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+    </row>
+    <row r="18" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+    </row>
+    <row r="20" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+    </row>
+    <row r="21" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+    </row>
+    <row r="22" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+    </row>
+    <row r="23" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+    </row>
+    <row r="24" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+    </row>
+    <row r="26" s="6" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+    </row>
+    <row r="27" s="6" customFormat="1" customHeight="1"/>
+    <row r="28" s="6" customFormat="1" customHeight="1"/>
+    <row r="29" s="6" customFormat="1" customHeight="1"/>
+    <row r="30" s="6" customFormat="1" customHeight="1"/>
+    <row r="31" s="6" customFormat="1" customHeight="1"/>
+    <row r="32" s="6" customFormat="1" customHeight="1"/>
+    <row r="33" s="6" customFormat="1" customHeight="1"/>
+    <row r="34" s="6" customFormat="1" customHeight="1"/>
+    <row r="35" s="6" customFormat="1" customHeight="1"/>
+    <row r="36" s="6" customFormat="1" customHeight="1"/>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="2:14">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/template/statement_template.xlsx
+++ b/template/statement_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="中润对账单" sheetId="3" r:id="rId1"/>
@@ -228,8 +228,8 @@
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="178" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="General&quot;月&quot;"/>
+    <numFmt numFmtId="180" formatCode="General&quot;月&quot;"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
     <numFmt numFmtId="182" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
     <numFmt numFmtId="183" formatCode="0_ "/>
     <numFmt numFmtId="184" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
@@ -982,6 +982,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF329E2E"/>
       </left>
@@ -1059,19 +1072,6 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF329E2E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,7 +1323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1378,33 +1378,45 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="181" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1450,28 +1462,28 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="183" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1483,22 +1495,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1543,14 +1555,17 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="14" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="14" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="8" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="8" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1582,10 +1597,10 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="14" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,47 +1612,44 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1651,11 +1663,11 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6697,268 +6709,268 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.43333333333333" style="59" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="59" customWidth="1"/>
-    <col min="3" max="3" width="7.15833333333333" style="59" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="59" customWidth="1"/>
-    <col min="5" max="5" width="19" style="59" customWidth="1"/>
-    <col min="6" max="6" width="14.8333333333333" style="59" customWidth="1"/>
-    <col min="7" max="7" width="14.0416666666667" style="59" customWidth="1"/>
-    <col min="8" max="8" width="19.65" style="59" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="59"/>
-    <col min="10" max="11" width="9" style="59"/>
-    <col min="12" max="12" width="11.5" style="59"/>
-    <col min="13" max="16345" width="9" style="59"/>
+    <col min="1" max="1" width="5.43333333333333" style="63" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="63" customWidth="1"/>
+    <col min="3" max="3" width="7.15833333333333" style="63" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="63" customWidth="1"/>
+    <col min="5" max="5" width="19" style="63" customWidth="1"/>
+    <col min="6" max="6" width="14.8333333333333" style="63" customWidth="1"/>
+    <col min="7" max="7" width="14.0416666666667" style="63" customWidth="1"/>
+    <col min="8" max="8" width="19.65" style="63" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="63"/>
+    <col min="10" max="11" width="9" style="63"/>
+    <col min="12" max="12" width="11.5" style="63"/>
+    <col min="13" max="16345" width="9" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" s="59" customFormat="1" ht="7" customHeight="1"/>
-    <row r="2" s="59" customFormat="1" ht="21" customHeight="1" spans="4:5">
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-    </row>
-    <row r="3" s="59" customFormat="1" ht="21" customHeight="1" spans="4:5">
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-    </row>
-    <row r="4" s="59" customFormat="1" ht="5" customHeight="1"/>
-    <row r="5" s="59" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A5" s="63" t="s">
+    <row r="1" s="63" customFormat="1" ht="7" customHeight="1"/>
+    <row r="2" s="63" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+    </row>
+    <row r="3" s="63" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+    </row>
+    <row r="4" s="63" customFormat="1" ht="5" customHeight="1"/>
+    <row r="5" s="63" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="A5" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="66"/>
-    </row>
-    <row r="6" s="59" customFormat="1" ht="1" customHeight="1" spans="1:8">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-    </row>
-    <row r="7" s="59" customFormat="1" ht="2" customHeight="1"/>
-    <row r="8" s="59" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A8" s="67" t="s">
+      <c r="H5" s="70"/>
+    </row>
+    <row r="6" s="63" customFormat="1" ht="1" customHeight="1" spans="1:9">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+    </row>
+    <row r="7" s="63" customFormat="1" ht="2" customHeight="1"/>
+    <row r="8" s="63" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="67" t="s">
+      <c r="G8" s="73"/>
+      <c r="H8" s="71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" s="60" customFormat="1" ht="25" customHeight="1" spans="1:9">
-      <c r="A9" s="70">
+    <row r="9" s="64" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A9" s="74">
         <v>1</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="77">
         <v>4190.26</v>
       </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="110"/>
-    </row>
-    <row r="10" s="59" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A10" s="76">
+      <c r="G9" s="78"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
+    </row>
+    <row r="10" s="63" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A10" s="81">
         <v>2</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77" t="s">
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="83">
         <v>10048.88</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
-    </row>
-    <row r="11" s="60" customFormat="1" ht="25" customHeight="1" spans="1:9">
-      <c r="A11" s="70">
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
+    </row>
+    <row r="11" s="64" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A11" s="74">
         <v>3</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="77">
         <v>43.25</v>
       </c>
-      <c r="G11" s="74"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="110"/>
-    </row>
-    <row r="12" s="59" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A12" s="76">
+      <c r="G11" s="78"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="80"/>
+    </row>
+    <row r="12" s="63" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A12" s="81">
         <v>4</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77" t="s">
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="87">
         <v>190.21</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-    </row>
-    <row r="13" s="60" customFormat="1" ht="25" customHeight="1" spans="1:9">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71" t="s">
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
+    </row>
+    <row r="13" s="64" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A13" s="74"/>
+      <c r="B13" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="110"/>
-    </row>
-    <row r="14" s="59" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="76"/>
-    </row>
-    <row r="15" s="60" customFormat="1" ht="25" customHeight="1" spans="1:9">
-      <c r="A15" s="70"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="110"/>
-    </row>
-    <row r="16" s="59" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="76"/>
-    </row>
-    <row r="17" s="59" customFormat="1" ht="3" customHeight="1" spans="1:8">
-      <c r="A17" s="87"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
-    </row>
-    <row r="18" s="59" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A18" s="93" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="80"/>
+    </row>
+    <row r="14" s="63" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="81"/>
+    </row>
+    <row r="15" s="64" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A15" s="74"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="80"/>
+    </row>
+    <row r="16" s="63" customFormat="1" ht="25" customHeight="1" spans="1:9">
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="81"/>
+    </row>
+    <row r="17" s="63" customFormat="1" ht="3" customHeight="1" spans="1:8">
+      <c r="A17" s="92"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="97"/>
+    </row>
+    <row r="18" s="63" customFormat="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A18" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="95"/>
-    </row>
-    <row r="19" s="59" customFormat="1" ht="3" customHeight="1" spans="1:8">
-      <c r="A19" s="96"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
-    </row>
-    <row r="20" s="59" customFormat="1" ht="181" customHeight="1" spans="1:8">
-      <c r="A20" s="87"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="100"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
+    </row>
+    <row r="19" s="63" customFormat="1" ht="3" customHeight="1" spans="1:8">
+      <c r="A19" s="101"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+    </row>
+    <row r="20" s="63" customFormat="1" ht="181" customHeight="1" spans="1:8">
+      <c r="A20" s="92"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" ht="135" customHeight="1" spans="1:8">
-      <c r="A21" s="101"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="103"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="108"/>
     </row>
     <row r="22" ht="87" customHeight="1" spans="1:8">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="108"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="113"/>
     </row>
     <row r="23" ht="8" customHeight="1"/>
-    <row r="24" ht="9" customHeight="1" spans="2:8">
-      <c r="B24" s="109" t="s">
+    <row r="24" ht="9" customHeight="1" spans="1:8">
+      <c r="B24" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
     </row>
     <row r="25" ht="14" customHeight="1"/>
   </sheetData>
@@ -7000,7 +7012,7 @@
   <sheetPr/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
@@ -7012,8 +7024,8 @@
     <col min="2" max="2" width="15.625" style="7" customWidth="1"/>
     <col min="3" max="4" width="24.4083333333333" style="7" customWidth="1"/>
     <col min="5" max="5" width="24.4083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.4083333333333" style="27" customWidth="1"/>
-    <col min="7" max="7" width="19.2583333333333" style="28" customWidth="1"/>
+    <col min="6" max="6" width="24.4083333333333" style="31" customWidth="1"/>
+    <col min="7" max="7" width="19.2583333333333" style="32" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
     <col min="11" max="12" width="5.625" style="1" customWidth="1"/>
@@ -7021,416 +7033,416 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="9"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="40" customHeight="1" spans="1:8">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="40" customHeight="1" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39">
         <v>45839</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="40">
         <v>45869</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="21" customHeight="1" spans="2:7">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
+    <row r="4" s="2" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="50" customHeight="1" spans="1:8">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" s="6" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="50"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" s="6" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A7" s="53"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="50"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" s="6" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A8" s="53"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="50"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" s="6" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A9" s="53"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="50"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" s="6" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A10" s="53"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="50"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" s="6" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A11" s="53"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="50"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" s="6" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A12" s="53"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="50"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" s="6" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A13" s="53"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="50"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A14" s="53"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="50"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A15" s="53"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="50"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A16" s="53"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="50"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A17" s="53"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="50"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A18" s="53"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="50"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A19" s="53"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="50"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A20" s="53"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="50"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A21" s="53"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="50"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A22" s="53"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="50"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A23" s="53"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="50"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="54"/>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A24" s="53"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="50"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="54"/>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A25" s="53"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="50"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A26" s="53"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="50"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A27" s="53"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="50"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A28" s="53"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="50"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A29" s="53"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="50"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A30" s="53"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="50"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A31" s="53"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="53"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="57"/>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A32" s="53"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="50"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="54"/>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A33" s="53"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="50"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="54"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A34" s="53"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="50"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="54"/>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A35" s="53"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="50"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="54"/>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A36" s="53"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="50"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="54"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="53">
-        <f>SUM(C6:C36)</f>
+      <c r="B37" s="59"/>
+      <c r="C37" s="57">
+        <f t="shared" ref="C37:H37" si="0">SUM(C6:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="53">
-        <f>SUM(D6:D36)</f>
+      <c r="D37" s="57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="53">
-        <f>SUM(E6:E36)</f>
+      <c r="E37" s="57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="53">
-        <f>SUM(F6:F36)</f>
+      <c r="F37" s="57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="53">
-        <f>SUM(G6:G36)</f>
+      <c r="G37" s="57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="53">
-        <f>SUM(H6:H36)</f>
+      <c r="H37" s="57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="56"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7449,8 +7461,8 @@
   <sheetPr/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:N5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
@@ -7480,7 +7492,7 @@
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="40" customHeight="1" spans="2:14">
+    <row r="2" s="2" customFormat="1" ht="40" customHeight="1" spans="1:15">
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -7495,7 +7507,7 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="40" customHeight="1" spans="2:14">
+    <row r="3" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
       <c r="B3" s="10"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7510,7 +7522,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="21" customHeight="1" spans="2:14">
+    <row r="4" s="2" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -7543,231 +7555,231 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25" t="s">
+      <c r="N5" s="18"/>
+      <c r="O5" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="36" customHeight="1" spans="1:15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="25"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="26">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="24">
         <f t="shared" ref="O7:O12" si="0">SUM(C7:N7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="26">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="26">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="26">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="26">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="26">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-    </row>
-    <row r="14" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-    </row>
-    <row r="15" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-    </row>
-    <row r="16" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+    <row r="13" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+    </row>
+    <row r="14" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+    </row>
+    <row r="15" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+    </row>
+    <row r="16" s="6" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
     </row>
     <row r="17" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
     </row>
     <row r="19" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
     </row>
     <row r="20" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
     </row>
     <row r="21" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
     </row>
     <row r="22" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
     </row>
     <row r="23" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
     </row>
     <row r="24" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
     </row>
     <row r="25" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" s="6" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" s="6" customFormat="1" customHeight="1"/>
     <row r="28" s="6" customFormat="1" customHeight="1"/>
